--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -843,7 +843,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,6 +862,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -876,12 +882,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1224,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1236,7 +1244,7 @@
     <col min="4" max="4" width="9.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1255,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1257,8 +1265,11 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1266,11 +1277,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>HYPERLINK(B3)</f>
+        <f t="shared" ref="C3:C34" si="0">HYPERLINK(B3)</f>
         <v>https://www.youtube.com/watch?v=1v3_AQ26jZ0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1278,11 +1292,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>HYPERLINK(B4)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=81ymPYEtFOw</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1290,11 +1307,14 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>HYPERLINK(B5)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=nPrhFxEuTYU</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1302,11 +1322,14 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>HYPERLINK(B6)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=3oOipgCbLIk</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1314,11 +1337,14 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>HYPERLINK(B7)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=ntAOq1ioTKo</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1326,11 +1352,14 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>HYPERLINK(B8)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=WGUNAJki2S4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1338,11 +1367,14 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>HYPERLINK(B9)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=UZio8TcTMrI</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1350,11 +1382,14 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>HYPERLINK(B10)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=iDbhQGz_rEo</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1362,11 +1397,14 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>HYPERLINK(B11)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=93rKZs0MkgU</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1374,11 +1412,14 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>HYPERLINK(B12)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=vVhD2EyS41Y</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1386,11 +1427,14 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>HYPERLINK(B13)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=82P5N2m41jE</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1398,11 +1442,14 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>HYPERLINK(B14)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=dr7z7a_8lQw</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1410,11 +1457,14 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>HYPERLINK(B15)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=A9SezQlvakw</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1422,11 +1472,14 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>HYPERLINK(B16)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=a_XrmKlaGTs</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1434,11 +1487,14 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>HYPERLINK(B17)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=fFwRC-fapIU</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1446,11 +1502,14 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>HYPERLINK(B18)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=roTZJaxjnJc</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1458,11 +1517,14 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>HYPERLINK(B19)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=8NOdgjC1988</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1470,11 +1532,14 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>HYPERLINK(B20)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=mJlRTUuVr04</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1482,11 +1547,14 @@
         <v>41</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>HYPERLINK(B21)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=4HyTlbHUKSw</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1494,11 +1562,14 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>HYPERLINK(B22)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=6D3VtEfCw7w</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1506,11 +1577,14 @@
         <v>45</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>HYPERLINK(B23)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=E69Lg2ZgOxg</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1518,11 +1592,14 @@
         <v>47</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f>HYPERLINK(B24)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=sluoVhT0ehg</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1530,11 +1607,14 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f>HYPERLINK(B25)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=1Yw9sC0PNwY</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1542,11 +1622,14 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f>HYPERLINK(B26)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=eBrGyuA2MIg</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1554,11 +1637,14 @@
         <v>53</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f>HYPERLINK(B27)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=w2GglmYHfmM</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1566,11 +1652,14 @@
         <v>55</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f>HYPERLINK(B28)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=U5oCv3JKWKA</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1578,11 +1667,14 @@
         <v>57</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f>HYPERLINK(B29)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=5TVj6iEBR4I</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1590,11 +1682,14 @@
         <v>59</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f>HYPERLINK(B30)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=xOccYkgRV4Q</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1602,11 +1697,14 @@
         <v>61</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f>HYPERLINK(B31)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=cTjj3LE8E90</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -1614,11 +1712,14 @@
         <v>63</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f>HYPERLINK(B32)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=lV_Z4HbNAx0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -1626,11 +1727,14 @@
         <v>65</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f>HYPERLINK(B33)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=kKWsJGKcMvo</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1638,11 +1742,14 @@
         <v>67</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f>HYPERLINK(B34)</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=9xiX-I5_LQY</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -1650,11 +1757,14 @@
         <v>69</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f>HYPERLINK(B35)</f>
+        <f t="shared" ref="C35:C66" si="1">HYPERLINK(B35)</f>
         <v>https://www.youtube.com/watch?v=J73mvgG9fFs</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1662,11 +1772,14 @@
         <v>71</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f>HYPERLINK(B36)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=aUnNWZorGmk</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -1674,11 +1787,14 @@
         <v>73</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f>HYPERLINK(B37)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=mCL2xLBDw8M</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -1686,11 +1802,14 @@
         <v>75</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f>HYPERLINK(B38)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=l_Wip8bEDFQ</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1698,11 +1817,14 @@
         <v>77</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f>HYPERLINK(B39)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ratcir3p03w</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1710,11 +1832,14 @@
         <v>79</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f>HYPERLINK(B40)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=-fK-xEev2I8</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -1722,11 +1847,14 @@
         <v>81</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f>HYPERLINK(B41)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=a38ehxv3kyk</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -1734,11 +1862,14 @@
         <v>83</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f>HYPERLINK(B42)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Lln1PKgGr_M</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -1746,11 +1877,14 @@
         <v>85</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f>HYPERLINK(B43)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=OnPE-Z8jtqM</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -1758,11 +1892,14 @@
         <v>87</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f>HYPERLINK(B44)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ccv1-W5ilak</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D44">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -1770,11 +1907,14 @@
         <v>89</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f>HYPERLINK(B45)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=bcXA4CqRXvM</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -1782,11 +1922,14 @@
         <v>91</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f>HYPERLINK(B46)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=ma-h30PoFms</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D46">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -1794,11 +1937,14 @@
         <v>93</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f>HYPERLINK(B47)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=ToGuhynu-No</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D47">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1806,8 +1952,11 @@
         <v>95</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f>HYPERLINK(B48)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=iRbsBi5W0-c</v>
+      </c>
+      <c r="D48">
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1818,8 +1967,11 @@
         <v>97</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f>HYPERLINK(B49)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=tXXnxjj2wM4</v>
+      </c>
+      <c r="D49">
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1830,8 +1982,11 @@
         <v>99</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f>HYPERLINK(B50)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=tofVCUDrg4M</v>
+      </c>
+      <c r="D50">
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1842,7 +1997,7 @@
         <v>101</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f>HYPERLINK(B51)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=UZPfbG0jNec</v>
       </c>
       <c r="D51" s="4">
@@ -1857,7 +2012,7 @@
         <v>103</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f>HYPERLINK(B52)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=dXHIDLPKdmA</v>
       </c>
       <c r="D52" s="4">
@@ -1872,7 +2027,7 @@
         <v>105</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f>HYPERLINK(B53)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ti7c-Hz7GSM</v>
       </c>
       <c r="D53" s="4">
@@ -1887,7 +2042,7 @@
         <v>107</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f>HYPERLINK(B54)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=ashGekqstl8</v>
       </c>
       <c r="D54" s="4">
@@ -1902,10 +2057,10 @@
         <v>109</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f>HYPERLINK(B55)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=NU37mF5q8VE</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1917,12 +2072,10 @@
         <v>111</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f>HYPERLINK(B56)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=VmZWXzxmNrE</v>
       </c>
-      <c r="D56" s="3">
-        <v>2</v>
-      </c>
+      <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
@@ -1932,11 +2085,11 @@
         <v>113</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f>HYPERLINK(B57)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=ORyfPJypKuU</v>
       </c>
-      <c r="D57">
-        <v>3</v>
+      <c r="D57" s="5">
+        <v>45432</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -1947,11 +2100,11 @@
         <v>115</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f>HYPERLINK(B58)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Jyo53pAyVAM</v>
       </c>
-      <c r="D58">
-        <v>3</v>
+      <c r="D58" s="6">
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -1962,11 +2115,11 @@
         <v>117</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f>HYPERLINK(B59)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=V7KBAa_gh4c</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -1977,11 +2130,11 @@
         <v>119</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f>HYPERLINK(B60)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=_scscQ4HVTY</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -1992,11 +2145,11 @@
         <v>121</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f>HYPERLINK(B61)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=BNWLf3cKdbQ</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -2007,11 +2160,11 @@
         <v>123</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f>HYPERLINK(B62)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=74DU02Fyrhk</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -2022,11 +2175,11 @@
         <v>125</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f>HYPERLINK(B63)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=aEow1QoTLo0</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -2037,11 +2190,11 @@
         <v>127</v>
       </c>
       <c r="C64" s="1" t="str">
-        <f>HYPERLINK(B64)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=oDlZBQjk_3A</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -2052,11 +2205,11 @@
         <v>129</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f>HYPERLINK(B65)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Fci_wwMp8G8</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -2067,11 +2220,11 @@
         <v>131</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f>HYPERLINK(B66)</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=8osKeShYVRQ</v>
       </c>
       <c r="D66">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -2082,11 +2235,11 @@
         <v>133</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f>HYPERLINK(B67)</f>
+        <f t="shared" ref="C67:C98" si="2">HYPERLINK(B67)</f>
         <v>https://www.youtube.com/watch?v=HLF4bFbBgwk</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -2097,11 +2250,11 @@
         <v>135</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f>HYPERLINK(B68)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=FN4aZPIAfI4</v>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -2112,11 +2265,11 @@
         <v>137</v>
       </c>
       <c r="C69" s="1" t="str">
-        <f>HYPERLINK(B69)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=2g2DBkFhTTY</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -2127,11 +2280,11 @@
         <v>139</v>
       </c>
       <c r="C70" s="1" t="str">
-        <f>HYPERLINK(B70)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=XNXzVfItWGY</v>
       </c>
       <c r="D70">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -2142,11 +2295,11 @@
         <v>141</v>
       </c>
       <c r="C71" s="1" t="str">
-        <f>HYPERLINK(B71)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=tLezwPKvPK4</v>
       </c>
       <c r="D71">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -2157,11 +2310,11 @@
         <v>143</v>
       </c>
       <c r="C72" s="1" t="str">
-        <f>HYPERLINK(B72)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=ehO0-6i9qD4</v>
       </c>
       <c r="D72">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -2172,11 +2325,11 @@
         <v>145</v>
       </c>
       <c r="C73" s="1" t="str">
-        <f>HYPERLINK(B73)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=6bXOo0sxY5c</v>
       </c>
       <c r="D73">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -2187,11 +2340,11 @@
         <v>147</v>
       </c>
       <c r="C74" s="1" t="str">
-        <f>HYPERLINK(B74)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=awjXaFR1jOM</v>
       </c>
       <c r="D74">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -2202,11 +2355,11 @@
         <v>149</v>
       </c>
       <c r="C75" s="1" t="str">
-        <f>HYPERLINK(B75)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=ABrrSwMYWSg</v>
       </c>
       <c r="D75">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -2217,11 +2370,11 @@
         <v>151</v>
       </c>
       <c r="C76" s="1" t="str">
-        <f>HYPERLINK(B76)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=c09drtuCS3c</v>
       </c>
       <c r="D76">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -2232,11 +2385,11 @@
         <v>153</v>
       </c>
       <c r="C77" s="1" t="str">
-        <f>HYPERLINK(B77)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=iK-kdhJ-7yI</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -2247,11 +2400,11 @@
         <v>155</v>
       </c>
       <c r="C78" s="1" t="str">
-        <f>HYPERLINK(B78)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=Z8noL_0M4tw</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -2262,11 +2415,11 @@
         <v>157</v>
       </c>
       <c r="C79" s="1" t="str">
-        <f>HYPERLINK(B79)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=WnBYW_DX3sM</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -2277,11 +2430,11 @@
         <v>159</v>
       </c>
       <c r="C80" s="1" t="str">
-        <f>HYPERLINK(B80)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=ay_OcblJasE</v>
       </c>
       <c r="D80">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -2292,11 +2445,11 @@
         <v>161</v>
       </c>
       <c r="C81" s="1" t="str">
-        <f>HYPERLINK(B81)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=IZnno-dKgVQ</v>
       </c>
       <c r="D81">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -2307,11 +2460,11 @@
         <v>163</v>
       </c>
       <c r="C82" s="1" t="str">
-        <f>HYPERLINK(B82)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=mDEV0Iucwz0</v>
       </c>
       <c r="D82">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -2322,11 +2475,11 @@
         <v>165</v>
       </c>
       <c r="C83" s="1" t="str">
-        <f>HYPERLINK(B83)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=RANHxyAvtM4</v>
       </c>
       <c r="D83">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -2337,11 +2490,11 @@
         <v>167</v>
       </c>
       <c r="C84" s="1" t="str">
-        <f>HYPERLINK(B84)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=SlMZqfvl5uw</v>
       </c>
       <c r="D84">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -2352,11 +2505,11 @@
         <v>169</v>
       </c>
       <c r="C85" s="1" t="str">
-        <f>HYPERLINK(B85)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=bHK1fE_BUms</v>
       </c>
       <c r="D85">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -2367,11 +2520,11 @@
         <v>171</v>
       </c>
       <c r="C86" s="1" t="str">
-        <f>HYPERLINK(B86)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=_W1i-c_6rOk</v>
       </c>
       <c r="D86">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -2382,8 +2535,11 @@
         <v>173</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f>HYPERLINK(B87)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=pGQnNYdPTvY</v>
+      </c>
+      <c r="D87">
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -2394,8 +2550,11 @@
         <v>175</v>
       </c>
       <c r="C88" s="1" t="str">
-        <f>HYPERLINK(B88)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=ut4vh59rGkw</v>
+      </c>
+      <c r="D88">
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -2406,8 +2565,11 @@
         <v>177</v>
       </c>
       <c r="C89" s="1" t="str">
-        <f>HYPERLINK(B89)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=LUiBOAy7x6Y</v>
+      </c>
+      <c r="D89">
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -2418,8 +2580,11 @@
         <v>179</v>
       </c>
       <c r="C90" s="1" t="str">
-        <f>HYPERLINK(B90)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=-1T54G_E-ys</v>
+      </c>
+      <c r="D90">
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -2430,8 +2595,11 @@
         <v>181</v>
       </c>
       <c r="C91" s="1" t="str">
-        <f>HYPERLINK(B91)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=HYVzrETXbkE</v>
+      </c>
+      <c r="D91">
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -2442,8 +2610,11 @@
         <v>183</v>
       </c>
       <c r="C92" s="1" t="str">
-        <f>HYPERLINK(B92)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=F9uESCHGjhA</v>
+      </c>
+      <c r="D92">
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -2454,8 +2625,11 @@
         <v>185</v>
       </c>
       <c r="C93" s="1" t="str">
-        <f>HYPERLINK(B93)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=jHgG4gjuFAk</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -2466,8 +2640,11 @@
         <v>187</v>
       </c>
       <c r="C94" s="1" t="str">
-        <f>HYPERLINK(B94)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=l93jRojZMqU</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -2478,8 +2655,11 @@
         <v>189</v>
       </c>
       <c r="C95" s="1" t="str">
-        <f>HYPERLINK(B95)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=WOFVY_wQ9wU</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -2490,11 +2670,14 @@
         <v>191</v>
       </c>
       <c r="C96" s="1" t="str">
-        <f>HYPERLINK(B96)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=4Im0CT43QxY</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -2502,11 +2685,14 @@
         <v>193</v>
       </c>
       <c r="C97" s="1" t="str">
-        <f>HYPERLINK(B97)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=tdDhyFoSG94</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -2514,11 +2700,14 @@
         <v>195</v>
       </c>
       <c r="C98" s="1" t="str">
-        <f>HYPERLINK(B98)</f>
+        <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=R47JAob1xBY</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>196</v>
       </c>
@@ -2526,11 +2715,14 @@
         <v>197</v>
       </c>
       <c r="C99" s="1" t="str">
-        <f>HYPERLINK(B99)</f>
+        <f t="shared" ref="C99:C130" si="3">HYPERLINK(B99)</f>
         <v>https://www.youtube.com/watch?v=sFKnP0iP0K0</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -2538,11 +2730,14 @@
         <v>199</v>
       </c>
       <c r="C100" s="1" t="str">
-        <f>HYPERLINK(B100)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=RT0t9a3Xnfw</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -2550,11 +2745,14 @@
         <v>201</v>
       </c>
       <c r="C101" s="1" t="str">
-        <f>HYPERLINK(B101)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=a20TaKNsriE</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -2562,11 +2760,14 @@
         <v>203</v>
       </c>
       <c r="C102" s="1" t="str">
-        <f>HYPERLINK(B102)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=JmXnztjULnQ</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -2574,11 +2775,14 @@
         <v>205</v>
       </c>
       <c r="C103" s="1" t="str">
-        <f>HYPERLINK(B103)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=7M5oWXCpDEw</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -2586,11 +2790,14 @@
         <v>207</v>
       </c>
       <c r="C104" s="1" t="str">
-        <f>HYPERLINK(B104)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=5shTLzwAdEc</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -2598,11 +2805,14 @@
         <v>209</v>
       </c>
       <c r="C105" s="1" t="str">
-        <f>HYPERLINK(B105)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=UPvv9SprgVo</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -2610,11 +2820,14 @@
         <v>211</v>
       </c>
       <c r="C106" s="1" t="str">
-        <f>HYPERLINK(B106)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=MFraC1JObUo</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -2622,11 +2835,14 @@
         <v>213</v>
       </c>
       <c r="C107" s="1" t="str">
-        <f>HYPERLINK(B107)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=fbKz7N92mhQ</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -2634,11 +2850,14 @@
         <v>215</v>
       </c>
       <c r="C108" s="1" t="str">
-        <f>HYPERLINK(B108)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=nMNiTZm-qY0</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -2646,11 +2865,14 @@
         <v>217</v>
       </c>
       <c r="C109" s="1" t="str">
-        <f>HYPERLINK(B109)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=4p5EQtyxSyI</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -2658,11 +2880,14 @@
         <v>219</v>
       </c>
       <c r="C110" s="1" t="str">
-        <f>HYPERLINK(B110)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=O-aDHBGMqXA</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>220</v>
       </c>
@@ -2670,11 +2895,14 @@
         <v>221</v>
       </c>
       <c r="C111" s="1" t="str">
-        <f>HYPERLINK(B111)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=Ka5i9TVUT-E</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -2682,11 +2910,14 @@
         <v>223</v>
       </c>
       <c r="C112" s="1" t="str">
-        <f>HYPERLINK(B112)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=abnL_GUGub4</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -2694,11 +2925,14 @@
         <v>225</v>
       </c>
       <c r="C113" s="1" t="str">
-        <f>HYPERLINK(B113)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=EmSNAtcHLm8</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>226</v>
       </c>
@@ -2706,11 +2940,14 @@
         <v>227</v>
       </c>
       <c r="C114" s="1" t="str">
-        <f>HYPERLINK(B114)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=ugTxMLjLS8M</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -2718,11 +2955,14 @@
         <v>229</v>
       </c>
       <c r="C115" s="1" t="str">
-        <f>HYPERLINK(B115)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=yCAlHPDgWtM</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -2730,11 +2970,14 @@
         <v>231</v>
       </c>
       <c r="C116" s="1" t="str">
-        <f>HYPERLINK(B116)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=utqrvIFAE1k</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D116">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -2742,11 +2985,14 @@
         <v>233</v>
       </c>
       <c r="C117" s="1" t="str">
-        <f>HYPERLINK(B117)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=pjvmVMDrzVU</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -2754,11 +3000,14 @@
         <v>235</v>
       </c>
       <c r="C118" s="1" t="str">
-        <f>HYPERLINK(B118)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=egxjT0p7_K8</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -2766,11 +3015,14 @@
         <v>237</v>
       </c>
       <c r="C119" s="1" t="str">
-        <f>HYPERLINK(B119)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=Ty7knppVo9E</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -2778,11 +3030,14 @@
         <v>239</v>
       </c>
       <c r="C120" s="1" t="str">
-        <f>HYPERLINK(B120)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=0GD480CnrO4</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -2790,11 +3045,14 @@
         <v>241</v>
       </c>
       <c r="C121" s="1" t="str">
-        <f>HYPERLINK(B121)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=nneTjTYikBE</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -2802,11 +3060,14 @@
         <v>243</v>
       </c>
       <c r="C122" s="1" t="str">
-        <f>HYPERLINK(B122)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=Oqw-v-Z7PuU</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D122">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -2814,11 +3075,14 @@
         <v>245</v>
       </c>
       <c r="C123" s="1" t="str">
-        <f>HYPERLINK(B123)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=aAEHjXDHtbE</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -2826,11 +3090,14 @@
         <v>247</v>
       </c>
       <c r="C124" s="1" t="str">
-        <f>HYPERLINK(B124)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=ZR1_QtLk_4U</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -2838,11 +3105,14 @@
         <v>249</v>
       </c>
       <c r="C125" s="1" t="str">
-        <f>HYPERLINK(B125)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=2PVRG45eVrY</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -2850,11 +3120,14 @@
         <v>251</v>
       </c>
       <c r="C126" s="1" t="str">
-        <f>HYPERLINK(B126)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=DeeWsqoY4Eo</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D126">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -2862,11 +3135,14 @@
         <v>253</v>
       </c>
       <c r="C127" s="1" t="str">
-        <f>HYPERLINK(B127)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=TCgK2nBJx9o</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D127">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>254</v>
       </c>
@@ -2874,11 +3150,14 @@
         <v>255</v>
       </c>
       <c r="C128" s="1" t="str">
-        <f>HYPERLINK(B128)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=C6aDw4y8qJ0</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -2886,11 +3165,14 @@
         <v>257</v>
       </c>
       <c r="C129" s="1" t="str">
-        <f>HYPERLINK(B129)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=gmp2tS2joaA</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D129">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -2898,11 +3180,14 @@
         <v>259</v>
       </c>
       <c r="C130" s="1" t="str">
-        <f>HYPERLINK(B130)</f>
+        <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=mELtxVUNNrw</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D130">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -2910,11 +3195,14 @@
         <v>261</v>
       </c>
       <c r="C131" s="1" t="str">
-        <f>HYPERLINK(B131)</f>
+        <f t="shared" ref="C131:C162" si="4">HYPERLINK(B131)</f>
         <v>https://www.youtube.com/watch?v=0Eo-_5bfers</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D131">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -2922,11 +3210,14 @@
         <v>263</v>
       </c>
       <c r="C132" s="1" t="str">
-        <f>HYPERLINK(B132)</f>
+        <f t="shared" si="4"/>
         <v>https://www.youtube.com/watch?v=1_bLnsNmhCI</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D132">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -2934,8 +3225,11 @@
         <v>265</v>
       </c>
       <c r="C133" s="1" t="str">
-        <f>HYPERLINK(B133)</f>
+        <f t="shared" si="4"/>
         <v>https://www.youtube.com/watch?v=yh2AKoJCV3k</v>
+      </c>
+      <c r="D133">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -843,18 +843,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -887,9 +881,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1232,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1266,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1281,7 +1275,7 @@
         <v>https://www.youtube.com/watch?v=1v3_AQ26jZ0</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1296,7 +1290,7 @@
         <v>https://www.youtube.com/watch?v=81ymPYEtFOw</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1311,7 +1305,7 @@
         <v>https://www.youtube.com/watch?v=nPrhFxEuTYU</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1326,7 +1320,7 @@
         <v>https://www.youtube.com/watch?v=3oOipgCbLIk</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1341,7 +1335,7 @@
         <v>https://www.youtube.com/watch?v=ntAOq1ioTKo</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1356,7 +1350,7 @@
         <v>https://www.youtube.com/watch?v=WGUNAJki2S4</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1371,7 +1365,7 @@
         <v>https://www.youtube.com/watch?v=UZio8TcTMrI</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1386,7 +1380,7 @@
         <v>https://www.youtube.com/watch?v=iDbhQGz_rEo</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1401,7 +1395,7 @@
         <v>https://www.youtube.com/watch?v=93rKZs0MkgU</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1416,7 +1410,7 @@
         <v>https://www.youtube.com/watch?v=vVhD2EyS41Y</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1431,7 +1425,7 @@
         <v>https://www.youtube.com/watch?v=82P5N2m41jE</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1446,7 +1440,7 @@
         <v>https://www.youtube.com/watch?v=dr7z7a_8lQw</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1461,7 +1455,7 @@
         <v>https://www.youtube.com/watch?v=A9SezQlvakw</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1476,7 +1470,7 @@
         <v>https://www.youtube.com/watch?v=a_XrmKlaGTs</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1491,7 +1485,7 @@
         <v>https://www.youtube.com/watch?v=fFwRC-fapIU</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1506,7 +1500,7 @@
         <v>https://www.youtube.com/watch?v=roTZJaxjnJc</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1521,7 +1515,7 @@
         <v>https://www.youtube.com/watch?v=8NOdgjC1988</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1536,7 +1530,7 @@
         <v>https://www.youtube.com/watch?v=mJlRTUuVr04</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1551,7 +1545,7 @@
         <v>https://www.youtube.com/watch?v=4HyTlbHUKSw</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1566,7 +1560,7 @@
         <v>https://www.youtube.com/watch?v=6D3VtEfCw7w</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1581,7 +1575,7 @@
         <v>https://www.youtube.com/watch?v=E69Lg2ZgOxg</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1596,7 +1590,7 @@
         <v>https://www.youtube.com/watch?v=sluoVhT0ehg</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1611,7 +1605,7 @@
         <v>https://www.youtube.com/watch?v=1Yw9sC0PNwY</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1626,7 +1620,7 @@
         <v>https://www.youtube.com/watch?v=eBrGyuA2MIg</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1641,7 +1635,7 @@
         <v>https://www.youtube.com/watch?v=w2GglmYHfmM</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1656,7 +1650,7 @@
         <v>https://www.youtube.com/watch?v=U5oCv3JKWKA</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1671,7 +1665,7 @@
         <v>https://www.youtube.com/watch?v=5TVj6iEBR4I</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1686,7 +1680,7 @@
         <v>https://www.youtube.com/watch?v=xOccYkgRV4Q</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1701,7 +1695,7 @@
         <v>https://www.youtube.com/watch?v=cTjj3LE8E90</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1716,7 +1710,7 @@
         <v>https://www.youtube.com/watch?v=lV_Z4HbNAx0</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1731,7 +1725,7 @@
         <v>https://www.youtube.com/watch?v=kKWsJGKcMvo</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1746,7 +1740,7 @@
         <v>https://www.youtube.com/watch?v=9xiX-I5_LQY</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1761,7 +1755,7 @@
         <v>https://www.youtube.com/watch?v=J73mvgG9fFs</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1776,7 +1770,7 @@
         <v>https://www.youtube.com/watch?v=aUnNWZorGmk</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1791,7 +1785,7 @@
         <v>https://www.youtube.com/watch?v=mCL2xLBDw8M</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1806,7 +1800,7 @@
         <v>https://www.youtube.com/watch?v=l_Wip8bEDFQ</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1821,7 +1815,7 @@
         <v>https://www.youtube.com/watch?v=Ratcir3p03w</v>
       </c>
       <c r="D39">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1836,7 +1830,7 @@
         <v>https://www.youtube.com/watch?v=-fK-xEev2I8</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1851,7 +1845,7 @@
         <v>https://www.youtube.com/watch?v=a38ehxv3kyk</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1866,7 +1860,7 @@
         <v>https://www.youtube.com/watch?v=Lln1PKgGr_M</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1881,7 +1875,7 @@
         <v>https://www.youtube.com/watch?v=OnPE-Z8jtqM</v>
       </c>
       <c r="D43">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1896,7 +1890,7 @@
         <v>https://www.youtube.com/watch?v=Ccv1-W5ilak</v>
       </c>
       <c r="D44">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1911,7 +1905,7 @@
         <v>https://www.youtube.com/watch?v=bcXA4CqRXvM</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1926,7 +1920,7 @@
         <v>https://www.youtube.com/watch?v=ma-h30PoFms</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1941,7 +1935,7 @@
         <v>https://www.youtube.com/watch?v=ToGuhynu-No</v>
       </c>
       <c r="D47">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1956,7 +1950,7 @@
         <v>https://www.youtube.com/watch?v=iRbsBi5W0-c</v>
       </c>
       <c r="D48">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1971,7 +1965,7 @@
         <v>https://www.youtube.com/watch?v=tXXnxjj2wM4</v>
       </c>
       <c r="D49">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1986,7 +1980,7 @@
         <v>https://www.youtube.com/watch?v=tofVCUDrg4M</v>
       </c>
       <c r="D50">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -2000,7 +1994,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=UZPfbG0jNec</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2015,7 +2009,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=dXHIDLPKdmA</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2030,7 +2024,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ti7c-Hz7GSM</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2045,7 +2039,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=ashGekqstl8</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2060,7 +2054,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=NU37mF5q8VE</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2075,7 +2069,9 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=VmZWXzxmNrE</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="D56" s="3">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
@@ -2088,8 +2084,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=ORyfPJypKuU</v>
       </c>
-      <c r="D57" s="5">
-        <v>45432</v>
+      <c r="D57" s="4">
+        <v>45315</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -2103,8 +2099,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Jyo53pAyVAM</v>
       </c>
-      <c r="D58" s="6">
-        <v>21</v>
+      <c r="D58" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -2118,8 +2114,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=V7KBAa_gh4c</v>
       </c>
-      <c r="D59">
-        <v>21</v>
+      <c r="D59" s="6">
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -2133,8 +2129,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=_scscQ4HVTY</v>
       </c>
-      <c r="D60">
-        <v>21</v>
+      <c r="D60" s="6">
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -2149,7 +2145,7 @@
         <v>https://www.youtube.com/watch?v=BNWLf3cKdbQ</v>
       </c>
       <c r="D61">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -2164,7 +2160,7 @@
         <v>https://www.youtube.com/watch?v=74DU02Fyrhk</v>
       </c>
       <c r="D62">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -2179,7 +2175,7 @@
         <v>https://www.youtube.com/watch?v=aEow1QoTLo0</v>
       </c>
       <c r="D63">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -2194,7 +2190,7 @@
         <v>https://www.youtube.com/watch?v=oDlZBQjk_3A</v>
       </c>
       <c r="D64">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -2209,7 +2205,7 @@
         <v>https://www.youtube.com/watch?v=Fci_wwMp8G8</v>
       </c>
       <c r="D65">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -2224,7 +2220,7 @@
         <v>https://www.youtube.com/watch?v=8osKeShYVRQ</v>
       </c>
       <c r="D66">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -2239,7 +2235,7 @@
         <v>https://www.youtube.com/watch?v=HLF4bFbBgwk</v>
       </c>
       <c r="D67">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -2254,7 +2250,7 @@
         <v>https://www.youtube.com/watch?v=FN4aZPIAfI4</v>
       </c>
       <c r="D68">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -2269,7 +2265,7 @@
         <v>https://www.youtube.com/watch?v=2g2DBkFhTTY</v>
       </c>
       <c r="D69">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -2284,7 +2280,7 @@
         <v>https://www.youtube.com/watch?v=XNXzVfItWGY</v>
       </c>
       <c r="D70">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -2299,7 +2295,7 @@
         <v>https://www.youtube.com/watch?v=tLezwPKvPK4</v>
       </c>
       <c r="D71">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -2314,7 +2310,7 @@
         <v>https://www.youtube.com/watch?v=ehO0-6i9qD4</v>
       </c>
       <c r="D72">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -2329,7 +2325,7 @@
         <v>https://www.youtube.com/watch?v=6bXOo0sxY5c</v>
       </c>
       <c r="D73">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -2344,7 +2340,7 @@
         <v>https://www.youtube.com/watch?v=awjXaFR1jOM</v>
       </c>
       <c r="D74">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -2359,7 +2355,7 @@
         <v>https://www.youtube.com/watch?v=ABrrSwMYWSg</v>
       </c>
       <c r="D75">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -2374,7 +2370,7 @@
         <v>https://www.youtube.com/watch?v=c09drtuCS3c</v>
       </c>
       <c r="D76">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -2389,7 +2385,7 @@
         <v>https://www.youtube.com/watch?v=iK-kdhJ-7yI</v>
       </c>
       <c r="D77">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -2404,7 +2400,7 @@
         <v>https://www.youtube.com/watch?v=Z8noL_0M4tw</v>
       </c>
       <c r="D78">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -2419,7 +2415,7 @@
         <v>https://www.youtube.com/watch?v=WnBYW_DX3sM</v>
       </c>
       <c r="D79">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -2434,7 +2430,7 @@
         <v>https://www.youtube.com/watch?v=ay_OcblJasE</v>
       </c>
       <c r="D80">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -2449,7 +2445,7 @@
         <v>https://www.youtube.com/watch?v=IZnno-dKgVQ</v>
       </c>
       <c r="D81">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -2464,7 +2460,7 @@
         <v>https://www.youtube.com/watch?v=mDEV0Iucwz0</v>
       </c>
       <c r="D82">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -2479,7 +2475,7 @@
         <v>https://www.youtube.com/watch?v=RANHxyAvtM4</v>
       </c>
       <c r="D83">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -2494,7 +2490,7 @@
         <v>https://www.youtube.com/watch?v=SlMZqfvl5uw</v>
       </c>
       <c r="D84">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -2509,7 +2505,7 @@
         <v>https://www.youtube.com/watch?v=bHK1fE_BUms</v>
       </c>
       <c r="D85">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -2524,7 +2520,7 @@
         <v>https://www.youtube.com/watch?v=_W1i-c_6rOk</v>
       </c>
       <c r="D86">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -2539,7 +2535,7 @@
         <v>https://www.youtube.com/watch?v=pGQnNYdPTvY</v>
       </c>
       <c r="D87">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -2554,7 +2550,7 @@
         <v>https://www.youtube.com/watch?v=ut4vh59rGkw</v>
       </c>
       <c r="D88">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -2569,7 +2565,7 @@
         <v>https://www.youtube.com/watch?v=LUiBOAy7x6Y</v>
       </c>
       <c r="D89">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -2584,7 +2580,7 @@
         <v>https://www.youtube.com/watch?v=-1T54G_E-ys</v>
       </c>
       <c r="D90">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -2599,7 +2595,7 @@
         <v>https://www.youtube.com/watch?v=HYVzrETXbkE</v>
       </c>
       <c r="D91">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -2614,7 +2610,7 @@
         <v>https://www.youtube.com/watch?v=F9uESCHGjhA</v>
       </c>
       <c r="D92">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -2629,7 +2625,7 @@
         <v>https://www.youtube.com/watch?v=jHgG4gjuFAk</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -2644,7 +2640,7 @@
         <v>https://www.youtube.com/watch?v=l93jRojZMqU</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -2659,7 +2655,7 @@
         <v>https://www.youtube.com/watch?v=WOFVY_wQ9wU</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -2674,7 +2670,7 @@
         <v>https://www.youtube.com/watch?v=4Im0CT43QxY</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -2689,7 +2685,7 @@
         <v>https://www.youtube.com/watch?v=tdDhyFoSG94</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -2704,7 +2700,7 @@
         <v>https://www.youtube.com/watch?v=R47JAob1xBY</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -2719,7 +2715,7 @@
         <v>https://www.youtube.com/watch?v=sFKnP0iP0K0</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -2734,7 +2730,7 @@
         <v>https://www.youtube.com/watch?v=RT0t9a3Xnfw</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -2749,7 +2745,7 @@
         <v>https://www.youtube.com/watch?v=a20TaKNsriE</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -2764,7 +2760,7 @@
         <v>https://www.youtube.com/watch?v=JmXnztjULnQ</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -2779,7 +2775,7 @@
         <v>https://www.youtube.com/watch?v=7M5oWXCpDEw</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -2794,7 +2790,7 @@
         <v>https://www.youtube.com/watch?v=5shTLzwAdEc</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -2809,7 +2805,7 @@
         <v>https://www.youtube.com/watch?v=UPvv9SprgVo</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -2824,7 +2820,7 @@
         <v>https://www.youtube.com/watch?v=MFraC1JObUo</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -2839,7 +2835,7 @@
         <v>https://www.youtube.com/watch?v=fbKz7N92mhQ</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -2854,7 +2850,7 @@
         <v>https://www.youtube.com/watch?v=nMNiTZm-qY0</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -2869,7 +2865,7 @@
         <v>https://www.youtube.com/watch?v=4p5EQtyxSyI</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -2884,7 +2880,7 @@
         <v>https://www.youtube.com/watch?v=O-aDHBGMqXA</v>
       </c>
       <c r="D110">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -2899,7 +2895,7 @@
         <v>https://www.youtube.com/watch?v=Ka5i9TVUT-E</v>
       </c>
       <c r="D111">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -2914,7 +2910,7 @@
         <v>https://www.youtube.com/watch?v=abnL_GUGub4</v>
       </c>
       <c r="D112">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -2929,7 +2925,7 @@
         <v>https://www.youtube.com/watch?v=EmSNAtcHLm8</v>
       </c>
       <c r="D113">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -2944,7 +2940,7 @@
         <v>https://www.youtube.com/watch?v=ugTxMLjLS8M</v>
       </c>
       <c r="D114">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -2959,7 +2955,7 @@
         <v>https://www.youtube.com/watch?v=yCAlHPDgWtM</v>
       </c>
       <c r="D115">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -2974,7 +2970,7 @@
         <v>https://www.youtube.com/watch?v=utqrvIFAE1k</v>
       </c>
       <c r="D116">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -2989,7 +2985,7 @@
         <v>https://www.youtube.com/watch?v=pjvmVMDrzVU</v>
       </c>
       <c r="D117">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -3004,7 +3000,7 @@
         <v>https://www.youtube.com/watch?v=egxjT0p7_K8</v>
       </c>
       <c r="D118">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -3019,7 +3015,7 @@
         <v>https://www.youtube.com/watch?v=Ty7knppVo9E</v>
       </c>
       <c r="D119">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -3034,7 +3030,7 @@
         <v>https://www.youtube.com/watch?v=0GD480CnrO4</v>
       </c>
       <c r="D120">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -3049,7 +3045,7 @@
         <v>https://www.youtube.com/watch?v=nneTjTYikBE</v>
       </c>
       <c r="D121">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -3064,7 +3060,7 @@
         <v>https://www.youtube.com/watch?v=Oqw-v-Z7PuU</v>
       </c>
       <c r="D122">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -3079,7 +3075,7 @@
         <v>https://www.youtube.com/watch?v=aAEHjXDHtbE</v>
       </c>
       <c r="D123">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -3094,7 +3090,7 @@
         <v>https://www.youtube.com/watch?v=ZR1_QtLk_4U</v>
       </c>
       <c r="D124">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -3109,7 +3105,7 @@
         <v>https://www.youtube.com/watch?v=2PVRG45eVrY</v>
       </c>
       <c r="D125">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -3124,7 +3120,7 @@
         <v>https://www.youtube.com/watch?v=DeeWsqoY4Eo</v>
       </c>
       <c r="D126">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -3139,7 +3135,7 @@
         <v>https://www.youtube.com/watch?v=TCgK2nBJx9o</v>
       </c>
       <c r="D127">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -3154,7 +3150,7 @@
         <v>https://www.youtube.com/watch?v=C6aDw4y8qJ0</v>
       </c>
       <c r="D128">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -3169,7 +3165,7 @@
         <v>https://www.youtube.com/watch?v=gmp2tS2joaA</v>
       </c>
       <c r="D129">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -3184,7 +3180,7 @@
         <v>https://www.youtube.com/watch?v=mELtxVUNNrw</v>
       </c>
       <c r="D130">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -3195,11 +3191,11 @@
         <v>261</v>
       </c>
       <c r="C131" s="1" t="str">
-        <f t="shared" ref="C131:C162" si="4">HYPERLINK(B131)</f>
+        <f t="shared" ref="C131:C133" si="4">HYPERLINK(B131)</f>
         <v>https://www.youtube.com/watch?v=0Eo-_5bfers</v>
       </c>
       <c r="D131">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -3214,7 +3210,7 @@
         <v>https://www.youtube.com/watch?v=1_bLnsNmhCI</v>
       </c>
       <c r="D132">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -3229,7 +3225,7 @@
         <v>https://www.youtube.com/watch?v=yh2AKoJCV3k</v>
       </c>
       <c r="D133">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="271">
   <si>
     <t>Title</t>
   </si>
@@ -820,6 +820,18 @@
   </si>
   <si>
     <t>Video Link</t>
+  </si>
+  <si>
+    <t>27,28</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>30,31</t>
   </si>
 </sst>
 </file>
@@ -852,13 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,10 +892,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1226,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1259,9 +1271,6 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>27</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1274,9 +1283,6 @@
         <f t="shared" ref="C3:C34" si="0">HYPERLINK(B3)</f>
         <v>https://www.youtube.com/watch?v=1v3_AQ26jZ0</v>
       </c>
-      <c r="D3">
-        <v>27</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1289,9 +1295,6 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=81ymPYEtFOw</v>
       </c>
-      <c r="D4">
-        <v>27</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -1304,9 +1307,6 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=nPrhFxEuTYU</v>
       </c>
-      <c r="D5">
-        <v>28</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1319,9 +1319,6 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=3oOipgCbLIk</v>
       </c>
-      <c r="D6">
-        <v>28</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -1334,9 +1331,6 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=ntAOq1ioTKo</v>
       </c>
-      <c r="D7">
-        <v>28</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -1349,9 +1343,6 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=WGUNAJki2S4</v>
       </c>
-      <c r="D8">
-        <v>29</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1364,9 +1355,6 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=UZio8TcTMrI</v>
       </c>
-      <c r="D9">
-        <v>29</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1379,9 +1367,6 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=iDbhQGz_rEo</v>
       </c>
-      <c r="D10">
-        <v>29</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1394,9 +1379,6 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=93rKZs0MkgU</v>
       </c>
-      <c r="D11">
-        <v>30</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -1410,7 +1392,7 @@
         <v>https://www.youtube.com/watch?v=vVhD2EyS41Y</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1424,8 +1406,8 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=82P5N2m41jE</v>
       </c>
-      <c r="D13">
-        <v>30</v>
+      <c r="D13" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1440,7 +1422,7 @@
         <v>https://www.youtube.com/watch?v=dr7z7a_8lQw</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1455,7 +1437,7 @@
         <v>https://www.youtube.com/watch?v=A9SezQlvakw</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1470,7 +1452,7 @@
         <v>https://www.youtube.com/watch?v=a_XrmKlaGTs</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1485,7 +1467,7 @@
         <v>https://www.youtube.com/watch?v=fFwRC-fapIU</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1500,7 +1482,7 @@
         <v>https://www.youtube.com/watch?v=roTZJaxjnJc</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1515,7 +1497,7 @@
         <v>https://www.youtube.com/watch?v=8NOdgjC1988</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1530,7 +1512,7 @@
         <v>https://www.youtube.com/watch?v=mJlRTUuVr04</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1545,7 +1527,7 @@
         <v>https://www.youtube.com/watch?v=4HyTlbHUKSw</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1560,7 +1542,7 @@
         <v>https://www.youtube.com/watch?v=6D3VtEfCw7w</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1575,7 +1557,7 @@
         <v>https://www.youtube.com/watch?v=E69Lg2ZgOxg</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1590,7 +1572,7 @@
         <v>https://www.youtube.com/watch?v=sluoVhT0ehg</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1605,7 +1587,7 @@
         <v>https://www.youtube.com/watch?v=1Yw9sC0PNwY</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1620,7 +1602,7 @@
         <v>https://www.youtube.com/watch?v=eBrGyuA2MIg</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1635,7 +1617,7 @@
         <v>https://www.youtube.com/watch?v=w2GglmYHfmM</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1650,7 +1632,7 @@
         <v>https://www.youtube.com/watch?v=U5oCv3JKWKA</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1665,7 +1647,7 @@
         <v>https://www.youtube.com/watch?v=5TVj6iEBR4I</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1680,7 +1662,7 @@
         <v>https://www.youtube.com/watch?v=xOccYkgRV4Q</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1695,7 +1677,7 @@
         <v>https://www.youtube.com/watch?v=cTjj3LE8E90</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1710,7 +1692,7 @@
         <v>https://www.youtube.com/watch?v=lV_Z4HbNAx0</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1725,7 +1707,7 @@
         <v>https://www.youtube.com/watch?v=kKWsJGKcMvo</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1740,7 +1722,7 @@
         <v>https://www.youtube.com/watch?v=9xiX-I5_LQY</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1755,7 +1737,7 @@
         <v>https://www.youtube.com/watch?v=J73mvgG9fFs</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1770,7 +1752,7 @@
         <v>https://www.youtube.com/watch?v=aUnNWZorGmk</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1785,7 +1767,7 @@
         <v>https://www.youtube.com/watch?v=mCL2xLBDw8M</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1800,7 +1782,7 @@
         <v>https://www.youtube.com/watch?v=l_Wip8bEDFQ</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1815,7 +1797,7 @@
         <v>https://www.youtube.com/watch?v=Ratcir3p03w</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1830,7 +1812,7 @@
         <v>https://www.youtube.com/watch?v=-fK-xEev2I8</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1845,7 +1827,7 @@
         <v>https://www.youtube.com/watch?v=a38ehxv3kyk</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1860,7 +1842,7 @@
         <v>https://www.youtube.com/watch?v=Lln1PKgGr_M</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1875,7 +1857,7 @@
         <v>https://www.youtube.com/watch?v=OnPE-Z8jtqM</v>
       </c>
       <c r="D43">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1890,7 +1872,7 @@
         <v>https://www.youtube.com/watch?v=Ccv1-W5ilak</v>
       </c>
       <c r="D44">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1905,7 +1887,7 @@
         <v>https://www.youtube.com/watch?v=bcXA4CqRXvM</v>
       </c>
       <c r="D45">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1920,7 +1902,7 @@
         <v>https://www.youtube.com/watch?v=ma-h30PoFms</v>
       </c>
       <c r="D46">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1935,7 +1917,7 @@
         <v>https://www.youtube.com/watch?v=ToGuhynu-No</v>
       </c>
       <c r="D47">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1950,7 +1932,7 @@
         <v>https://www.youtube.com/watch?v=iRbsBi5W0-c</v>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1965,7 +1947,7 @@
         <v>https://www.youtube.com/watch?v=tXXnxjj2wM4</v>
       </c>
       <c r="D49">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1980,7 +1962,7 @@
         <v>https://www.youtube.com/watch?v=tofVCUDrg4M</v>
       </c>
       <c r="D50">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1994,8 +1976,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=UZPfbG0jNec</v>
       </c>
-      <c r="D51" s="3">
-        <v>1</v>
+      <c r="D51" s="5">
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -2009,8 +1991,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=dXHIDLPKdmA</v>
       </c>
-      <c r="D52" s="3">
-        <v>1</v>
+      <c r="D52" s="5">
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -2024,8 +2006,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ti7c-Hz7GSM</v>
       </c>
-      <c r="D53" s="3">
-        <v>1</v>
+      <c r="D53" s="5">
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -2039,8 +2021,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=ashGekqstl8</v>
       </c>
-      <c r="D54" s="3">
-        <v>2</v>
+      <c r="D54" s="5">
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -2054,8 +2036,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=NU37mF5q8VE</v>
       </c>
-      <c r="D55" s="3">
-        <v>2</v>
+      <c r="D55" s="5">
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -2069,8 +2051,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=VmZWXzxmNrE</v>
       </c>
-      <c r="D56" s="3">
-        <v>23</v>
+      <c r="D56" s="5">
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -2084,8 +2066,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=ORyfPJypKuU</v>
       </c>
-      <c r="D57" s="4">
-        <v>45315</v>
+      <c r="D57" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -2099,8 +2081,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Jyo53pAyVAM</v>
       </c>
-      <c r="D58" s="5">
-        <v>25</v>
+      <c r="D58" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -2114,8 +2096,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=V7KBAa_gh4c</v>
       </c>
-      <c r="D59" s="6">
-        <v>26</v>
+      <c r="D59" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -2129,8 +2111,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=_scscQ4HVTY</v>
       </c>
-      <c r="D60" s="6">
-        <v>26</v>
+      <c r="D60" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -2144,8 +2126,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=BNWLf3cKdbQ</v>
       </c>
-      <c r="D61">
-        <v>27</v>
+      <c r="D61" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -2159,8 +2141,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=74DU02Fyrhk</v>
       </c>
-      <c r="D62">
-        <v>27</v>
+      <c r="D62" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -2174,8 +2156,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=aEow1QoTLo0</v>
       </c>
-      <c r="D63">
-        <v>27</v>
+      <c r="D63" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -2189,8 +2171,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=oDlZBQjk_3A</v>
       </c>
-      <c r="D64">
-        <v>27</v>
+      <c r="D64" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -2204,8 +2186,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Fci_wwMp8G8</v>
       </c>
-      <c r="D65">
-        <v>28</v>
+      <c r="D65" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -2219,8 +2201,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=8osKeShYVRQ</v>
       </c>
-      <c r="D66">
-        <v>28</v>
+      <c r="D66" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -2234,8 +2216,8 @@
         <f t="shared" ref="C67:C98" si="2">HYPERLINK(B67)</f>
         <v>https://www.youtube.com/watch?v=HLF4bFbBgwk</v>
       </c>
-      <c r="D67">
-        <v>28</v>
+      <c r="D67" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -2249,8 +2231,8 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=FN4aZPIAfI4</v>
       </c>
-      <c r="D68">
-        <v>29</v>
+      <c r="D68" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -2264,12 +2246,12 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=2g2DBkFhTTY</v>
       </c>
-      <c r="D69">
-        <v>29</v>
+      <c r="D69" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B70" t="s">
@@ -2279,12 +2261,12 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=XNXzVfItWGY</v>
       </c>
-      <c r="D70">
-        <v>29</v>
+      <c r="D70" s="3">
+        <v>45447</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="A71" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B71" t="s">
@@ -2295,11 +2277,11 @@
         <v>https://www.youtube.com/watch?v=tLezwPKvPK4</v>
       </c>
       <c r="D71">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B72" t="s">
@@ -2310,11 +2292,11 @@
         <v>https://www.youtube.com/watch?v=ehO0-6i9qD4</v>
       </c>
       <c r="D72">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="A73" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B73" t="s">
@@ -2325,11 +2307,11 @@
         <v>https://www.youtube.com/watch?v=6bXOo0sxY5c</v>
       </c>
       <c r="D73">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B74" t="s">
@@ -2340,11 +2322,11 @@
         <v>https://www.youtube.com/watch?v=awjXaFR1jOM</v>
       </c>
       <c r="D74">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B75" t="s">
@@ -2355,11 +2337,11 @@
         <v>https://www.youtube.com/watch?v=ABrrSwMYWSg</v>
       </c>
       <c r="D75">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" s="6" t="s">
         <v>150</v>
       </c>
       <c r="B76" t="s">
@@ -2370,11 +2352,11 @@
         <v>https://www.youtube.com/watch?v=c09drtuCS3c</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="A77" s="6" t="s">
         <v>152</v>
       </c>
       <c r="B77" t="s">
@@ -2385,11 +2367,11 @@
         <v>https://www.youtube.com/watch?v=iK-kdhJ-7yI</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B78" t="s">
@@ -2400,11 +2382,11 @@
         <v>https://www.youtube.com/watch?v=Z8noL_0M4tw</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79" s="6" t="s">
         <v>156</v>
       </c>
       <c r="B79" t="s">
@@ -2415,11 +2397,11 @@
         <v>https://www.youtube.com/watch?v=WnBYW_DX3sM</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B80" t="s">
@@ -2430,7 +2412,7 @@
         <v>https://www.youtube.com/watch?v=ay_OcblJasE</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -2445,7 +2427,7 @@
         <v>https://www.youtube.com/watch?v=IZnno-dKgVQ</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -2460,7 +2442,7 @@
         <v>https://www.youtube.com/watch?v=mDEV0Iucwz0</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -2475,7 +2457,7 @@
         <v>https://www.youtube.com/watch?v=RANHxyAvtM4</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -2490,7 +2472,7 @@
         <v>https://www.youtube.com/watch?v=SlMZqfvl5uw</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -2505,7 +2487,7 @@
         <v>https://www.youtube.com/watch?v=bHK1fE_BUms</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -2520,7 +2502,7 @@
         <v>https://www.youtube.com/watch?v=_W1i-c_6rOk</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -2535,7 +2517,7 @@
         <v>https://www.youtube.com/watch?v=pGQnNYdPTvY</v>
       </c>
       <c r="D87">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -2550,7 +2532,7 @@
         <v>https://www.youtube.com/watch?v=ut4vh59rGkw</v>
       </c>
       <c r="D88">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -2565,7 +2547,7 @@
         <v>https://www.youtube.com/watch?v=LUiBOAy7x6Y</v>
       </c>
       <c r="D89">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -2580,7 +2562,7 @@
         <v>https://www.youtube.com/watch?v=-1T54G_E-ys</v>
       </c>
       <c r="D90">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -2595,7 +2577,7 @@
         <v>https://www.youtube.com/watch?v=HYVzrETXbkE</v>
       </c>
       <c r="D91">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -2610,7 +2592,7 @@
         <v>https://www.youtube.com/watch?v=F9uESCHGjhA</v>
       </c>
       <c r="D92">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -2625,7 +2607,7 @@
         <v>https://www.youtube.com/watch?v=jHgG4gjuFAk</v>
       </c>
       <c r="D93">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -2640,7 +2622,7 @@
         <v>https://www.youtube.com/watch?v=l93jRojZMqU</v>
       </c>
       <c r="D94">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -2655,7 +2637,7 @@
         <v>https://www.youtube.com/watch?v=WOFVY_wQ9wU</v>
       </c>
       <c r="D95">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -2670,7 +2652,7 @@
         <v>https://www.youtube.com/watch?v=4Im0CT43QxY</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -2685,7 +2667,7 @@
         <v>https://www.youtube.com/watch?v=tdDhyFoSG94</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -2700,7 +2682,7 @@
         <v>https://www.youtube.com/watch?v=R47JAob1xBY</v>
       </c>
       <c r="D98">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -2715,7 +2697,7 @@
         <v>https://www.youtube.com/watch?v=sFKnP0iP0K0</v>
       </c>
       <c r="D99">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -2730,7 +2712,7 @@
         <v>https://www.youtube.com/watch?v=RT0t9a3Xnfw</v>
       </c>
       <c r="D100">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -2745,7 +2727,7 @@
         <v>https://www.youtube.com/watch?v=a20TaKNsriE</v>
       </c>
       <c r="D101">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -2760,7 +2742,7 @@
         <v>https://www.youtube.com/watch?v=JmXnztjULnQ</v>
       </c>
       <c r="D102">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -2775,7 +2757,7 @@
         <v>https://www.youtube.com/watch?v=7M5oWXCpDEw</v>
       </c>
       <c r="D103">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -2790,7 +2772,7 @@
         <v>https://www.youtube.com/watch?v=5shTLzwAdEc</v>
       </c>
       <c r="D104">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -2805,7 +2787,7 @@
         <v>https://www.youtube.com/watch?v=UPvv9SprgVo</v>
       </c>
       <c r="D105">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -2820,7 +2802,7 @@
         <v>https://www.youtube.com/watch?v=MFraC1JObUo</v>
       </c>
       <c r="D106">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -2835,7 +2817,7 @@
         <v>https://www.youtube.com/watch?v=fbKz7N92mhQ</v>
       </c>
       <c r="D107">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -2850,7 +2832,7 @@
         <v>https://www.youtube.com/watch?v=nMNiTZm-qY0</v>
       </c>
       <c r="D108">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -2865,7 +2847,7 @@
         <v>https://www.youtube.com/watch?v=4p5EQtyxSyI</v>
       </c>
       <c r="D109">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -2880,7 +2862,7 @@
         <v>https://www.youtube.com/watch?v=O-aDHBGMqXA</v>
       </c>
       <c r="D110">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -2895,7 +2877,7 @@
         <v>https://www.youtube.com/watch?v=Ka5i9TVUT-E</v>
       </c>
       <c r="D111">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -2910,7 +2892,7 @@
         <v>https://www.youtube.com/watch?v=abnL_GUGub4</v>
       </c>
       <c r="D112">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -2924,8 +2906,8 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=EmSNAtcHLm8</v>
       </c>
-      <c r="D113">
-        <v>17</v>
+      <c r="D113" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -2940,7 +2922,7 @@
         <v>https://www.youtube.com/watch?v=ugTxMLjLS8M</v>
       </c>
       <c r="D114">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -2955,7 +2937,7 @@
         <v>https://www.youtube.com/watch?v=yCAlHPDgWtM</v>
       </c>
       <c r="D115">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -2970,7 +2952,7 @@
         <v>https://www.youtube.com/watch?v=utqrvIFAE1k</v>
       </c>
       <c r="D116">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -2985,7 +2967,7 @@
         <v>https://www.youtube.com/watch?v=pjvmVMDrzVU</v>
       </c>
       <c r="D117">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -3000,7 +2982,7 @@
         <v>https://www.youtube.com/watch?v=egxjT0p7_K8</v>
       </c>
       <c r="D118">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -3015,7 +2997,7 @@
         <v>https://www.youtube.com/watch?v=Ty7knppVo9E</v>
       </c>
       <c r="D119">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -3030,7 +3012,7 @@
         <v>https://www.youtube.com/watch?v=0GD480CnrO4</v>
       </c>
       <c r="D120">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -3045,7 +3027,7 @@
         <v>https://www.youtube.com/watch?v=nneTjTYikBE</v>
       </c>
       <c r="D121">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -3060,7 +3042,7 @@
         <v>https://www.youtube.com/watch?v=Oqw-v-Z7PuU</v>
       </c>
       <c r="D122">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -3075,7 +3057,7 @@
         <v>https://www.youtube.com/watch?v=aAEHjXDHtbE</v>
       </c>
       <c r="D123">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -3090,7 +3072,7 @@
         <v>https://www.youtube.com/watch?v=ZR1_QtLk_4U</v>
       </c>
       <c r="D124">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -3105,7 +3087,7 @@
         <v>https://www.youtube.com/watch?v=2PVRG45eVrY</v>
       </c>
       <c r="D125">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -3120,7 +3102,7 @@
         <v>https://www.youtube.com/watch?v=DeeWsqoY4Eo</v>
       </c>
       <c r="D126">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -3135,7 +3117,7 @@
         <v>https://www.youtube.com/watch?v=TCgK2nBJx9o</v>
       </c>
       <c r="D127">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -3150,7 +3132,7 @@
         <v>https://www.youtube.com/watch?v=C6aDw4y8qJ0</v>
       </c>
       <c r="D128">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -3165,7 +3147,7 @@
         <v>https://www.youtube.com/watch?v=gmp2tS2joaA</v>
       </c>
       <c r="D129">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -3180,7 +3162,7 @@
         <v>https://www.youtube.com/watch?v=mELtxVUNNrw</v>
       </c>
       <c r="D130">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -3194,8 +3176,8 @@
         <f t="shared" ref="C131:C133" si="4">HYPERLINK(B131)</f>
         <v>https://www.youtube.com/watch?v=0Eo-_5bfers</v>
       </c>
-      <c r="D131">
-        <v>24</v>
+      <c r="D131" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -3210,7 +3192,7 @@
         <v>https://www.youtube.com/watch?v=1_bLnsNmhCI</v>
       </c>
       <c r="D132">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -3225,12 +3207,13 @@
         <v>https://www.youtube.com/watch?v=yh2AKoJCV3k</v>
       </c>
       <c r="D133">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Playlist data" sheetId="1" r:id="rId1"/>
@@ -855,7 +855,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -874,6 +874,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -888,14 +906,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1238,14 +1261,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="14.4140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="74.9140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="45.5" customWidth="1"/>
     <col min="4" max="4" width="9.9140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1262,120 +1285,120 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="10" t="str">
         <f t="shared" ref="C3:C34" si="0">HYPERLINK(B3)</f>
         <v>https://www.youtube.com/watch?v=1v3_AQ26jZ0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=81ymPYEtFOw</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=nPrhFxEuTYU</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=3oOipgCbLIk</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=ntAOq1ioTKo</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=WGUNAJki2S4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=UZio8TcTMrI</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=iDbhQGz_rEo</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=93rKZs0MkgU</v>
       </c>
@@ -1396,13 +1419,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=82P5N2m41jE</v>
       </c>
@@ -1976,7 +1999,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=UZPfbG0jNec</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>29</v>
       </c>
     </row>
@@ -1991,7 +2014,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=dXHIDLPKdmA</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>29</v>
       </c>
     </row>
@@ -2006,7 +2029,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ti7c-Hz7GSM</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>29</v>
       </c>
     </row>
@@ -2021,7 +2044,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=ashGekqstl8</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>20</v>
       </c>
     </row>
@@ -2036,7 +2059,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=NU37mF5q8VE</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>20</v>
       </c>
     </row>
@@ -2051,7 +2074,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=VmZWXzxmNrE</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>29</v>
       </c>
     </row>
@@ -2066,7 +2089,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=ORyfPJypKuU</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2081,7 +2104,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Jyo53pAyVAM</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2096,7 +2119,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=V7KBAa_gh4c</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2111,7 +2134,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=_scscQ4HVTY</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2126,7 +2149,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=BNWLf3cKdbQ</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <v>3</v>
       </c>
     </row>
@@ -2141,7 +2164,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=74DU02Fyrhk</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <v>3</v>
       </c>
     </row>
@@ -2156,7 +2179,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=aEow1QoTLo0</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <v>3</v>
       </c>
     </row>
@@ -2171,7 +2194,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=oDlZBQjk_3A</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2186,7 +2209,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Fci_wwMp8G8</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2201,7 +2224,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=8osKeShYVRQ</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2216,7 +2239,7 @@
         <f t="shared" ref="C67:C98" si="2">HYPERLINK(B67)</f>
         <v>https://www.youtube.com/watch?v=HLF4bFbBgwk</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2231,7 +2254,7 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=FN4aZPIAfI4</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <v>6</v>
       </c>
     </row>
@@ -2246,12 +2269,12 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=2g2DBkFhTTY</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="11" t="s">
         <v>138</v>
       </c>
       <c r="B70" t="s">
@@ -2261,12 +2284,12 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=XNXzVfItWGY</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="6">
         <v>45447</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="11" t="s">
         <v>140</v>
       </c>
       <c r="B71" t="s">
@@ -2276,12 +2299,12 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=tLezwPKvPK4</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="11" t="s">
         <v>142</v>
       </c>
       <c r="B72" t="s">
@@ -2291,12 +2314,12 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=ehO0-6i9qD4</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B73" t="s">
@@ -2306,12 +2329,12 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=6bXOo0sxY5c</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B74" t="s">
@@ -2321,12 +2344,12 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=awjXaFR1jOM</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="11" t="s">
         <v>148</v>
       </c>
       <c r="B75" t="s">
@@ -2336,12 +2359,12 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=ABrrSwMYWSg</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="11" t="s">
         <v>150</v>
       </c>
       <c r="B76" t="s">
@@ -2351,12 +2374,12 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=c09drtuCS3c</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="11" t="s">
         <v>152</v>
       </c>
       <c r="B77" t="s">
@@ -2366,12 +2389,12 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=iK-kdhJ-7yI</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="11" t="s">
         <v>154</v>
       </c>
       <c r="B78" t="s">
@@ -2381,12 +2404,12 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=Z8noL_0M4tw</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="11" t="s">
         <v>156</v>
       </c>
       <c r="B79" t="s">
@@ -2396,12 +2419,12 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=WnBYW_DX3sM</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="11" t="s">
         <v>158</v>
       </c>
       <c r="B80" t="s">
@@ -2411,12 +2434,12 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=ay_OcblJasE</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B81" t="s">
@@ -2426,7 +2449,7 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=IZnno-dKgVQ</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="5">
         <v>10</v>
       </c>
     </row>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Playlist data" sheetId="1" r:id="rId1"/>
@@ -1261,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1534,7 +1534,7 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=mJlRTUuVr04</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>11</v>
       </c>
     </row>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -906,7 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -919,6 +919,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1261,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1294,6 +1296,7 @@
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -1306,6 +1309,7 @@
         <f t="shared" ref="C3:C34" si="0">HYPERLINK(B3)</f>
         <v>https://www.youtube.com/watch?v=1v3_AQ26jZ0</v>
       </c>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
@@ -1318,6 +1322,7 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=81ymPYEtFOw</v>
       </c>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -1330,6 +1335,7 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=nPrhFxEuTYU</v>
       </c>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
@@ -1342,6 +1348,7 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=3oOipgCbLIk</v>
       </c>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
@@ -1354,6 +1361,7 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=ntAOq1ioTKo</v>
       </c>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
@@ -1366,6 +1374,7 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=WGUNAJki2S4</v>
       </c>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
@@ -1378,6 +1387,7 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=UZio8TcTMrI</v>
       </c>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
@@ -1390,6 +1400,7 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=iDbhQGz_rEo</v>
       </c>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
@@ -1402,19 +1413,20 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=93rKZs0MkgU</v>
       </c>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=vVhD2EyS41Y</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>8</v>
       </c>
     </row>
@@ -1429,102 +1441,102 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=82P5N2m41jE</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="8" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=dr7z7a_8lQw</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=A9SezQlvakw</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1" t="str">
+      <c r="C16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=a_XrmKlaGTs</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="str">
+      <c r="C17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=fFwRC-fapIU</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=roTZJaxjnJc</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="str">
+      <c r="C19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=8NOdgjC1988</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
@@ -1539,7 +1551,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
@@ -1549,12 +1561,12 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=4HyTlbHUKSw</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
@@ -1564,7 +1576,7 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=6D3VtEfCw7w</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <v>12</v>
       </c>
     </row>
@@ -2280,7 +2292,7 @@
       <c r="B70" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="1" t="str">
+      <c r="C70" s="13" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=XNXzVfItWGY</v>
       </c>
@@ -2295,7 +2307,7 @@
       <c r="B71" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="1" t="str">
+      <c r="C71" s="13" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=tLezwPKvPK4</v>
       </c>
@@ -2310,7 +2322,7 @@
       <c r="B72" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="1" t="str">
+      <c r="C72" s="13" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=ehO0-6i9qD4</v>
       </c>
@@ -2325,7 +2337,7 @@
       <c r="B73" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="1" t="str">
+      <c r="C73" s="13" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=6bXOo0sxY5c</v>
       </c>
@@ -2340,7 +2352,7 @@
       <c r="B74" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="1" t="str">
+      <c r="C74" s="13" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=awjXaFR1jOM</v>
       </c>
@@ -2355,7 +2367,7 @@
       <c r="B75" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="1" t="str">
+      <c r="C75" s="13" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=ABrrSwMYWSg</v>
       </c>
@@ -2370,7 +2382,7 @@
       <c r="B76" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="1" t="str">
+      <c r="C76" s="13" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=c09drtuCS3c</v>
       </c>
@@ -2385,7 +2397,7 @@
       <c r="B77" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="1" t="str">
+      <c r="C77" s="13" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=iK-kdhJ-7yI</v>
       </c>
@@ -2400,7 +2412,7 @@
       <c r="B78" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="1" t="str">
+      <c r="C78" s="13" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=Z8noL_0M4tw</v>
       </c>
@@ -2415,7 +2427,7 @@
       <c r="B79" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="1" t="str">
+      <c r="C79" s="13" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=WnBYW_DX3sM</v>
       </c>
@@ -2430,7 +2442,7 @@
       <c r="B80" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="1" t="str">
+      <c r="C80" s="13" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=ay_OcblJasE</v>
       </c>
@@ -2442,10 +2454,10 @@
       <c r="A81" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="1" t="str">
+      <c r="C81" s="12" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=IZnno-dKgVQ</v>
       </c>
@@ -2454,17 +2466,17 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="1" t="str">
+      <c r="C82" s="12" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=mDEV0Iucwz0</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="5">
         <v>11</v>
       </c>
     </row>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -855,7 +855,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,12 +865,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,21 +900,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1263,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1287,326 +1280,326 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="9" t="str">
         <f t="shared" ref="C3:C34" si="0">HYPERLINK(B3)</f>
         <v>https://www.youtube.com/watch?v=1v3_AQ26jZ0</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="str">
+      <c r="C4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=81ymPYEtFOw</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="str">
+      <c r="C5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=nPrhFxEuTYU</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="str">
+      <c r="C6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=3oOipgCbLIk</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10" t="str">
+      <c r="C7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=ntAOq1ioTKo</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10" t="str">
+      <c r="C8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=WGUNAJki2S4</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10" t="str">
+      <c r="C9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=UZio8TcTMrI</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="10" t="str">
+      <c r="C10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=iDbhQGz_rEo</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="str">
+      <c r="C11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=93rKZs0MkgU</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10" t="str">
+      <c r="C12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=vVhD2EyS41Y</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10" t="str">
+      <c r="C13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=82P5N2m41jE</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="10" t="str">
+      <c r="C14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=dr7z7a_8lQw</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="10" t="str">
+      <c r="C15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=A9SezQlvakw</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="10" t="str">
+      <c r="C16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=a_XrmKlaGTs</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="10" t="str">
+      <c r="C17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=fFwRC-fapIU</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="10" t="str">
+      <c r="C18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=roTZJaxjnJc</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="10" t="str">
+      <c r="C19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=8NOdgjC1988</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="str">
+      <c r="C20" s="12" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=mJlRTUuVr04</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="1" t="str">
+      <c r="C21" s="12" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=4HyTlbHUKSw</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="1" t="str">
+      <c r="C22" s="12" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=6D3VtEfCw7w</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="str">
+      <c r="C23" s="12" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=E69Lg2ZgOxg</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="10">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="str">
+      <c r="C24" s="12" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=sluoVhT0ehg</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="10">
         <v>13</v>
       </c>
     </row>
@@ -2286,212 +2279,212 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="10" t="s">
         <v>138</v>
       </c>
       <c r="B70" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="13" t="str">
+      <c r="C70" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=XNXzVfItWGY</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="5">
         <v>45447</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B71" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="13" t="str">
+      <c r="C71" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=tLezwPKvPK4</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="10" t="s">
         <v>142</v>
       </c>
       <c r="B72" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="13" t="str">
+      <c r="C72" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=ehO0-6i9qD4</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="10" t="s">
         <v>144</v>
       </c>
       <c r="B73" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="13" t="str">
+      <c r="C73" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=6bXOo0sxY5c</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="10" t="s">
         <v>146</v>
       </c>
       <c r="B74" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="13" t="str">
+      <c r="C74" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=awjXaFR1jOM</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="10" t="s">
         <v>148</v>
       </c>
       <c r="B75" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="13" t="str">
+      <c r="C75" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=ABrrSwMYWSg</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="10" t="s">
         <v>150</v>
       </c>
       <c r="B76" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="13" t="str">
+      <c r="C76" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=c09drtuCS3c</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="10" t="s">
         <v>152</v>
       </c>
       <c r="B77" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="13" t="str">
+      <c r="C77" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=iK-kdhJ-7yI</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="10" t="s">
         <v>154</v>
       </c>
       <c r="B78" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="13" t="str">
+      <c r="C78" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=Z8noL_0M4tw</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B79" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="13" t="str">
+      <c r="C79" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=WnBYW_DX3sM</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="10" t="s">
         <v>158</v>
       </c>
       <c r="B80" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="13" t="str">
+      <c r="C80" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=ay_OcblJasE</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="10" t="s">
         <v>161</v>
       </c>
       <c r="C81" s="12" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=IZnno-dKgVQ</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="12" t="str">
+      <c r="C82" s="9" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=mDEV0Iucwz0</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="A83" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="1" t="str">
+      <c r="C83" s="9" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=RANHxyAvtM4</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3251,6 +3244,7 @@
     <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:A133 B1 B3:B133" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="274">
   <si>
     <t>Title</t>
   </si>
@@ -822,16 +822,25 @@
     <t>Video Link</t>
   </si>
   <si>
-    <t>27,28</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>30,31</t>
+    <t>19,20</t>
+  </si>
+  <si>
+    <t>23,24</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>9,10</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>14,15</t>
   </si>
 </sst>
 </file>
@@ -900,7 +909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -914,6 +923,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1256,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1435,7 +1451,7 @@
         <v>https://www.youtube.com/watch?v=82P5N2m41jE</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1604,63 +1620,57 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1" t="str">
+      <c r="C25" s="11" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=1Yw9sC0PNwY</v>
       </c>
-      <c r="D25">
-        <v>14</v>
-      </c>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="1" t="str">
+      <c r="C26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=eBrGyuA2MIg</v>
       </c>
-      <c r="D26">
-        <v>14</v>
-      </c>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="1" t="str">
+      <c r="C27" s="11" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=w2GglmYHfmM</v>
       </c>
-      <c r="D27">
-        <v>15</v>
-      </c>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="1" t="str">
+      <c r="C28" s="11" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=U5oCv3JKWKA</v>
       </c>
-      <c r="D28">
-        <v>15</v>
+      <c r="D28" s="6">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1675,7 +1685,7 @@
         <v>https://www.youtube.com/watch?v=5TVj6iEBR4I</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1689,8 +1699,8 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=xOccYkgRV4Q</v>
       </c>
-      <c r="D30">
-        <v>16</v>
+      <c r="D30" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1705,7 +1715,7 @@
         <v>https://www.youtube.com/watch?v=cTjj3LE8E90</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1720,7 +1730,7 @@
         <v>https://www.youtube.com/watch?v=lV_Z4HbNAx0</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1734,8 +1744,8 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=kKWsJGKcMvo</v>
       </c>
-      <c r="D33">
-        <v>18</v>
+      <c r="D33" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1750,7 +1760,7 @@
         <v>https://www.youtube.com/watch?v=9xiX-I5_LQY</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1765,7 +1775,7 @@
         <v>https://www.youtube.com/watch?v=J73mvgG9fFs</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1780,7 +1790,7 @@
         <v>https://www.youtube.com/watch?v=aUnNWZorGmk</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1795,7 +1805,7 @@
         <v>https://www.youtube.com/watch?v=mCL2xLBDw8M</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1810,7 +1820,7 @@
         <v>https://www.youtube.com/watch?v=l_Wip8bEDFQ</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1825,7 +1835,7 @@
         <v>https://www.youtube.com/watch?v=Ratcir3p03w</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1840,7 +1850,7 @@
         <v>https://www.youtube.com/watch?v=-fK-xEev2I8</v>
       </c>
       <c r="D40">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1855,7 +1865,7 @@
         <v>https://www.youtube.com/watch?v=a38ehxv3kyk</v>
       </c>
       <c r="D41">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1869,8 +1879,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Lln1PKgGr_M</v>
       </c>
-      <c r="D42">
-        <v>22</v>
+      <c r="D42" s="13">
+        <v>45474</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1885,7 +1895,7 @@
         <v>https://www.youtube.com/watch?v=OnPE-Z8jtqM</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1900,7 +1910,7 @@
         <v>https://www.youtube.com/watch?v=Ccv1-W5ilak</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1915,7 +1925,7 @@
         <v>https://www.youtube.com/watch?v=bcXA4CqRXvM</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1930,7 +1940,7 @@
         <v>https://www.youtube.com/watch?v=ma-h30PoFms</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1945,7 +1955,7 @@
         <v>https://www.youtube.com/watch?v=ToGuhynu-No</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1960,7 +1970,7 @@
         <v>https://www.youtube.com/watch?v=iRbsBi5W0-c</v>
       </c>
       <c r="D48">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1974,8 +1984,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=tXXnxjj2wM4</v>
       </c>
-      <c r="D49">
-        <v>27</v>
+      <c r="D49" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1989,8 +1999,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=tofVCUDrg4M</v>
       </c>
-      <c r="D50">
-        <v>28</v>
+      <c r="D50" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -2004,8 +2014,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=UZPfbG0jNec</v>
       </c>
-      <c r="D51" s="4">
-        <v>29</v>
+      <c r="D51" s="15">
+        <v>45485</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -2019,9 +2029,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=dXHIDLPKdmA</v>
       </c>
-      <c r="D52" s="4">
-        <v>29</v>
-      </c>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
@@ -2034,9 +2042,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ti7c-Hz7GSM</v>
       </c>
-      <c r="D53" s="4">
-        <v>29</v>
-      </c>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
@@ -2050,7 +2056,7 @@
         <v>https://www.youtube.com/watch?v=ashGekqstl8</v>
       </c>
       <c r="D54" s="4">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -2065,7 +2071,7 @@
         <v>https://www.youtube.com/watch?v=NU37mF5q8VE</v>
       </c>
       <c r="D55" s="4">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -2080,7 +2086,7 @@
         <v>https://www.youtube.com/watch?v=VmZWXzxmNrE</v>
       </c>
       <c r="D56" s="4">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -2095,7 +2101,7 @@
         <v>https://www.youtube.com/watch?v=ORyfPJypKuU</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -2110,7 +2116,7 @@
         <v>https://www.youtube.com/watch?v=Jyo53pAyVAM</v>
       </c>
       <c r="D58" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -2125,7 +2131,7 @@
         <v>https://www.youtube.com/watch?v=V7KBAa_gh4c</v>
       </c>
       <c r="D59" s="4">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -2140,7 +2146,7 @@
         <v>https://www.youtube.com/watch?v=_scscQ4HVTY</v>
       </c>
       <c r="D60" s="4">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -2155,7 +2161,7 @@
         <v>https://www.youtube.com/watch?v=BNWLf3cKdbQ</v>
       </c>
       <c r="D61" s="4">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -2170,7 +2176,7 @@
         <v>https://www.youtube.com/watch?v=74DU02Fyrhk</v>
       </c>
       <c r="D62" s="4">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -2185,7 +2191,7 @@
         <v>https://www.youtube.com/watch?v=aEow1QoTLo0</v>
       </c>
       <c r="D63" s="4">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -2200,7 +2206,7 @@
         <v>https://www.youtube.com/watch?v=oDlZBQjk_3A</v>
       </c>
       <c r="D64" s="4">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -2215,7 +2221,7 @@
         <v>https://www.youtube.com/watch?v=Fci_wwMp8G8</v>
       </c>
       <c r="D65" s="4">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -2230,7 +2236,7 @@
         <v>https://www.youtube.com/watch?v=8osKeShYVRQ</v>
       </c>
       <c r="D66" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -2245,7 +2251,7 @@
         <v>https://www.youtube.com/watch?v=HLF4bFbBgwk</v>
       </c>
       <c r="D67" s="4">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -2260,7 +2266,7 @@
         <v>https://www.youtube.com/watch?v=FN4aZPIAfI4</v>
       </c>
       <c r="D68" s="4">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -2275,7 +2281,7 @@
         <v>https://www.youtube.com/watch?v=2g2DBkFhTTY</v>
       </c>
       <c r="D69" s="4">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -2470,7 +2476,7 @@
         <v>https://www.youtube.com/watch?v=mDEV0Iucwz0</v>
       </c>
       <c r="D82" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -2485,7 +2491,7 @@
         <v>https://www.youtube.com/watch?v=RANHxyAvtM4</v>
       </c>
       <c r="D83" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -2500,7 +2506,7 @@
         <v>https://www.youtube.com/watch?v=SlMZqfvl5uw</v>
       </c>
       <c r="D84">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -2515,7 +2521,7 @@
         <v>https://www.youtube.com/watch?v=bHK1fE_BUms</v>
       </c>
       <c r="D85">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -2530,7 +2536,7 @@
         <v>https://www.youtube.com/watch?v=_W1i-c_6rOk</v>
       </c>
       <c r="D86">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -2545,7 +2551,7 @@
         <v>https://www.youtube.com/watch?v=pGQnNYdPTvY</v>
       </c>
       <c r="D87">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -2560,7 +2566,7 @@
         <v>https://www.youtube.com/watch?v=ut4vh59rGkw</v>
       </c>
       <c r="D88">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -2575,7 +2581,7 @@
         <v>https://www.youtube.com/watch?v=LUiBOAy7x6Y</v>
       </c>
       <c r="D89">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -2590,7 +2596,7 @@
         <v>https://www.youtube.com/watch?v=-1T54G_E-ys</v>
       </c>
       <c r="D90">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -2605,7 +2611,7 @@
         <v>https://www.youtube.com/watch?v=HYVzrETXbkE</v>
       </c>
       <c r="D91">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -2620,7 +2626,7 @@
         <v>https://www.youtube.com/watch?v=F9uESCHGjhA</v>
       </c>
       <c r="D92">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -2635,7 +2641,7 @@
         <v>https://www.youtube.com/watch?v=jHgG4gjuFAk</v>
       </c>
       <c r="D93">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -2650,7 +2656,7 @@
         <v>https://www.youtube.com/watch?v=l93jRojZMqU</v>
       </c>
       <c r="D94">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -2665,7 +2671,7 @@
         <v>https://www.youtube.com/watch?v=WOFVY_wQ9wU</v>
       </c>
       <c r="D95">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -2680,7 +2686,7 @@
         <v>https://www.youtube.com/watch?v=4Im0CT43QxY</v>
       </c>
       <c r="D96">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -2695,7 +2701,7 @@
         <v>https://www.youtube.com/watch?v=tdDhyFoSG94</v>
       </c>
       <c r="D97">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -2710,7 +2716,7 @@
         <v>https://www.youtube.com/watch?v=R47JAob1xBY</v>
       </c>
       <c r="D98">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -2725,7 +2731,7 @@
         <v>https://www.youtube.com/watch?v=sFKnP0iP0K0</v>
       </c>
       <c r="D99">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -2740,7 +2746,7 @@
         <v>https://www.youtube.com/watch?v=RT0t9a3Xnfw</v>
       </c>
       <c r="D100">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -2755,7 +2761,7 @@
         <v>https://www.youtube.com/watch?v=a20TaKNsriE</v>
       </c>
       <c r="D101">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -2770,7 +2776,7 @@
         <v>https://www.youtube.com/watch?v=JmXnztjULnQ</v>
       </c>
       <c r="D102">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -2785,7 +2791,7 @@
         <v>https://www.youtube.com/watch?v=7M5oWXCpDEw</v>
       </c>
       <c r="D103">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -2800,7 +2806,7 @@
         <v>https://www.youtube.com/watch?v=5shTLzwAdEc</v>
       </c>
       <c r="D104">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -2815,7 +2821,7 @@
         <v>https://www.youtube.com/watch?v=UPvv9SprgVo</v>
       </c>
       <c r="D105">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -2830,7 +2836,7 @@
         <v>https://www.youtube.com/watch?v=MFraC1JObUo</v>
       </c>
       <c r="D106">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -2845,7 +2851,7 @@
         <v>https://www.youtube.com/watch?v=fbKz7N92mhQ</v>
       </c>
       <c r="D107">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -2860,7 +2866,7 @@
         <v>https://www.youtube.com/watch?v=nMNiTZm-qY0</v>
       </c>
       <c r="D108">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -2875,7 +2881,7 @@
         <v>https://www.youtube.com/watch?v=4p5EQtyxSyI</v>
       </c>
       <c r="D109">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -2890,7 +2896,7 @@
         <v>https://www.youtube.com/watch?v=O-aDHBGMqXA</v>
       </c>
       <c r="D110">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -2905,7 +2911,7 @@
         <v>https://www.youtube.com/watch?v=Ka5i9TVUT-E</v>
       </c>
       <c r="D111">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -2920,7 +2926,7 @@
         <v>https://www.youtube.com/watch?v=abnL_GUGub4</v>
       </c>
       <c r="D112">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -2934,8 +2940,8 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=EmSNAtcHLm8</v>
       </c>
-      <c r="D113" t="s">
-        <v>267</v>
+      <c r="D113">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -2950,7 +2956,7 @@
         <v>https://www.youtube.com/watch?v=ugTxMLjLS8M</v>
       </c>
       <c r="D114">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -2965,7 +2971,7 @@
         <v>https://www.youtube.com/watch?v=yCAlHPDgWtM</v>
       </c>
       <c r="D115">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -2980,7 +2986,7 @@
         <v>https://www.youtube.com/watch?v=utqrvIFAE1k</v>
       </c>
       <c r="D116">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -2995,7 +3001,7 @@
         <v>https://www.youtube.com/watch?v=pjvmVMDrzVU</v>
       </c>
       <c r="D117">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -3010,7 +3016,7 @@
         <v>https://www.youtube.com/watch?v=egxjT0p7_K8</v>
       </c>
       <c r="D118">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -3025,7 +3031,7 @@
         <v>https://www.youtube.com/watch?v=Ty7knppVo9E</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -3040,7 +3046,7 @@
         <v>https://www.youtube.com/watch?v=0GD480CnrO4</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -3055,7 +3061,7 @@
         <v>https://www.youtube.com/watch?v=nneTjTYikBE</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -3070,7 +3076,7 @@
         <v>https://www.youtube.com/watch?v=Oqw-v-Z7PuU</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -3085,7 +3091,7 @@
         <v>https://www.youtube.com/watch?v=aAEHjXDHtbE</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -3100,7 +3106,7 @@
         <v>https://www.youtube.com/watch?v=ZR1_QtLk_4U</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -3115,7 +3121,7 @@
         <v>https://www.youtube.com/watch?v=2PVRG45eVrY</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -3130,7 +3136,7 @@
         <v>https://www.youtube.com/watch?v=DeeWsqoY4Eo</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -3145,7 +3151,7 @@
         <v>https://www.youtube.com/watch?v=TCgK2nBJx9o</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -3160,7 +3166,7 @@
         <v>https://www.youtube.com/watch?v=C6aDw4y8qJ0</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -3175,7 +3181,7 @@
         <v>https://www.youtube.com/watch?v=gmp2tS2joaA</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -3190,7 +3196,7 @@
         <v>https://www.youtube.com/watch?v=mELtxVUNNrw</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -3205,7 +3211,7 @@
         <v>https://www.youtube.com/watch?v=0Eo-_5bfers</v>
       </c>
       <c r="D131" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -3220,7 +3226,7 @@
         <v>https://www.youtube.com/watch?v=1_bLnsNmhCI</v>
       </c>
       <c r="D132">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -3235,10 +3241,13 @@
         <v>https://www.youtube.com/watch?v=yh2AKoJCV3k</v>
       </c>
       <c r="D133">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D51:D53"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -924,10 +924,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1272,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1674,17 +1674,17 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="1" t="str">
+      <c r="C29" s="11" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=5TVj6iEBR4I</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <v>18</v>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=UZPfbG0jNec</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="14">
         <v>45485</v>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=dXHIDLPKdmA</v>
       </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
@@ -2042,7 +2042,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ti7c-Hz7GSM</v>
       </c>
-      <c r="D53" s="14"/>
+      <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -1273,7 +1273,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1689,17 +1689,17 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1" t="str">
+      <c r="C30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=xOccYkgRV4Q</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="6" t="s">
         <v>268</v>
       </c>
     </row>
@@ -2465,62 +2465,62 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="9" t="str">
+      <c r="C82" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=mDEV0Iucwz0</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="9" t="str">
+      <c r="C83" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=RANHxyAvtM4</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="1" t="str">
+      <c r="C84" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=SlMZqfvl5uw</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="A85" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="1" t="str">
+      <c r="C85" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=bHK1fE_BUms</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="6">
         <v>18</v>
       </c>
     </row>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -1272,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1704,32 +1704,32 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="1" t="str">
+      <c r="C31" s="11" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=cTjj3LE8E90</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="1" t="str">
+      <c r="C32" s="11" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=lV_Z4HbNAx0</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="6">
         <v>22</v>
       </c>
     </row>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -1272,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D32"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1734,17 +1734,17 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="1" t="str">
+      <c r="C33" s="11" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=kKWsJGKcMvo</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="6" t="s">
         <v>269</v>
       </c>
     </row>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -864,7 +864,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -895,6 +895,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -909,7 +915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -930,6 +936,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1272,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1749,47 +1757,47 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="1" t="str">
+      <c r="C34" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=9xiX-I5_LQY</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="16">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="1" t="str">
+      <c r="C35" s="17" t="str">
         <f t="shared" ref="C35:C66" si="1">HYPERLINK(B35)</f>
         <v>https://www.youtube.com/watch?v=J73mvgG9fFs</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="16">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="1" t="str">
+      <c r="C36" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=aUnNWZorGmk</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="16">
         <v>26</v>
       </c>
     </row>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -930,14 +930,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1757,47 +1757,47 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="17" t="str">
+      <c r="C34" s="11" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=9xiX-I5_LQY</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="17" t="str">
+      <c r="C35" s="11" t="str">
         <f t="shared" ref="C35:C66" si="1">HYPERLINK(B35)</f>
         <v>https://www.youtube.com/watch?v=J73mvgG9fFs</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="17" t="str">
+      <c r="C36" s="11" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=aUnNWZorGmk</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="6">
         <v>26</v>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=UZPfbG0jNec</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="16">
         <v>45485</v>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=dXHIDLPKdmA</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="17"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
@@ -2050,7 +2050,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ti7c-Hz7GSM</v>
       </c>
-      <c r="D53" s="15"/>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
@@ -2533,47 +2533,47 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="A86" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="1" t="str">
+      <c r="C86" s="15" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=_W1i-c_6rOk</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="14">
         <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="1" t="str">
+      <c r="C87" s="15" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=pGQnNYdPTvY</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="14">
         <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="A88" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="1" t="str">
+      <c r="C88" s="15" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=ut4vh59rGkw</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="14">
         <v>19</v>
       </c>
     </row>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -1278,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1741,7 +1741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>64</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>66</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>68</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>70</v>
       </c>
@@ -1801,52 +1801,54 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="1" t="str">
+      <c r="C37" s="11" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=mCL2xLBDw8M</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="1" t="str">
+      <c r="C38" s="11" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=l_Wip8bEDFQ</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="1" t="str">
+      <c r="C39" s="11" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ratcir3p03w</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1861,7 +1863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -1876,7 +1878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -1891,7 +1893,7 @@
         <v>45474</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -1906,7 +1908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -1921,7 +1923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -1936,7 +1938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -1951,7 +1953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -1966,7 +1968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>94</v>
       </c>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -930,14 +930,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:E39"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2024,7 +2024,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=UZPfbG0jNec</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="14">
         <v>45485</v>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=dXHIDLPKdmA</v>
       </c>
-      <c r="D52" s="17"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
@@ -2052,7 +2052,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ti7c-Hz7GSM</v>
       </c>
-      <c r="D53" s="17"/>
+      <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
@@ -2535,92 +2535,92 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="15" t="str">
+      <c r="C86" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=_W1i-c_6rOk</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D86" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="15" t="str">
+      <c r="C87" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=pGQnNYdPTvY</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D87" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="15" t="str">
+      <c r="C88" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=ut4vh59rGkw</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D88" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="A89" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="1" t="str">
+      <c r="C89" s="17" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=LUiBOAy7x6Y</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="A90" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="1" t="str">
+      <c r="C90" s="17" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=-1T54G_E-ys</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="A91" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C91" s="1" t="str">
+      <c r="C91" s="17" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=HYVzrETXbkE</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="16">
         <v>20</v>
       </c>
     </row>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -930,14 +930,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2024,7 +2024,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=UZPfbG0jNec</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="16">
         <v>45485</v>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=dXHIDLPKdmA</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="17"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
@@ -2052,7 +2052,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ti7c-Hz7GSM</v>
       </c>
-      <c r="D53" s="15"/>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
@@ -2580,77 +2580,77 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="17" t="str">
+      <c r="C89" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=LUiBOAy7x6Y</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D89" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="17" t="str">
+      <c r="C90" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=-1T54G_E-ys</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D90" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C91" s="17" t="str">
+      <c r="C91" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=HYVzrETXbkE</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D91" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="A92" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C92" s="1" t="str">
+      <c r="C92" s="15" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=F9uESCHGjhA</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="14">
         <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="A93" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="1" t="str">
+      <c r="C93" s="15" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=jHgG4gjuFAk</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="14">
         <v>21</v>
       </c>
     </row>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2625,92 +2625,92 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C92" s="15" t="str">
+      <c r="C92" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=F9uESCHGjhA</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D92" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="15" t="str">
+      <c r="C93" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=jHgG4gjuFAk</v>
       </c>
-      <c r="D93" s="14">
+      <c r="D93" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="A94" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C94" s="1" t="str">
+      <c r="C94" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=l93jRojZMqU</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="A95" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="1" t="str">
+      <c r="C95" s="15" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=WOFVY_wQ9wU</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="14">
         <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="A96" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="1" t="str">
+      <c r="C96" s="15" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=4Im0CT43QxY</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="14">
         <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="A97" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C97" s="1" t="str">
+      <c r="C97" s="15" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=tdDhyFoSG94</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="14">
         <v>22</v>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:A133 B1 B3:B133" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:A93 B1 B3:B133 A95:A133" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -930,14 +930,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2024,7 +2024,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=UZPfbG0jNec</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="14">
         <v>45485</v>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=dXHIDLPKdmA</v>
       </c>
-      <c r="D52" s="17"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
@@ -2052,7 +2052,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ti7c-Hz7GSM</v>
       </c>
-      <c r="D53" s="17"/>
+      <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
@@ -2670,92 +2670,92 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="15" t="str">
+      <c r="C95" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=WOFVY_wQ9wU</v>
       </c>
-      <c r="D95" s="14">
+      <c r="D95" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="15" t="str">
+      <c r="C96" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=4Im0CT43QxY</v>
       </c>
-      <c r="D96" s="14">
+      <c r="D96" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C97" s="15" t="str">
+      <c r="C97" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=tdDhyFoSG94</v>
       </c>
-      <c r="D97" s="14">
+      <c r="D97" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="A98" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C98" s="1" t="str">
+      <c r="C98" s="17" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=R47JAob1xBY</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="16">
         <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C99" s="1" t="str">
+      <c r="C99" s="17" t="str">
         <f t="shared" ref="C99:C130" si="3">HYPERLINK(B99)</f>
         <v>https://www.youtube.com/watch?v=sFKnP0iP0K0</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="16">
         <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="C100" s="1" t="str">
+      <c r="C100" s="17" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=RT0t9a3Xnfw</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="16">
         <v>23</v>
       </c>
     </row>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -864,7 +864,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -895,12 +895,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -915,7 +909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -936,8 +930,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1281,7 +1273,7 @@
   <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:D100"/>
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2715,62 +2707,62 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C98" s="17" t="str">
+      <c r="C98" s="11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=R47JAob1xBY</v>
       </c>
-      <c r="D98" s="16">
+      <c r="D98" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C99" s="17" t="str">
+      <c r="C99" s="11" t="str">
         <f t="shared" ref="C99:C130" si="3">HYPERLINK(B99)</f>
         <v>https://www.youtube.com/watch?v=sFKnP0iP0K0</v>
       </c>
-      <c r="D99" s="16">
+      <c r="D99" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C100" s="17" t="str">
+      <c r="C100" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=RT0t9a3Xnfw</v>
       </c>
-      <c r="D100" s="16">
+      <c r="D100" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="1" t="str">
+      <c r="C101" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=a20TaKNsriE</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="6">
         <v>24</v>
       </c>
     </row>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -1272,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2767,92 +2767,92 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C102" s="1" t="str">
+      <c r="C102" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=JmXnztjULnQ</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="A103" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C103" s="1" t="str">
+      <c r="C103" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=7M5oWXCpDEw</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="A104" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C104" s="1" t="str">
+      <c r="C104" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=5shTLzwAdEc</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="A105" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C105" s="1" t="str">
+      <c r="C105" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=UPvv9SprgVo</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="A106" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C106" s="1" t="str">
+      <c r="C106" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=MFraC1JObUo</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="6">
         <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="A107" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C107" s="1" t="str">
+      <c r="C107" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=fbKz7N92mhQ</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="6">
         <v>27</v>
       </c>
     </row>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="272">
   <si>
     <t>Title</t>
   </si>
@@ -831,16 +831,10 @@
     <t>23,24</t>
   </si>
   <si>
-    <t>7,8</t>
-  </si>
-  <si>
-    <t>9,10</t>
-  </si>
-  <si>
-    <t>8,9</t>
-  </si>
-  <si>
-    <t>14,15</t>
+    <t>21,22</t>
+  </si>
+  <si>
+    <t>20,21</t>
   </si>
 </sst>
 </file>
@@ -1272,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:D107"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1835,8 +1829,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ratcir3p03w</v>
       </c>
-      <c r="D39" s="6">
-        <v>29</v>
+      <c r="D39" s="4">
+        <v>10</v>
       </c>
       <c r="E39" s="3"/>
     </row>
@@ -1851,8 +1845,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=-fK-xEev2I8</v>
       </c>
-      <c r="D40">
-        <v>30</v>
+      <c r="D40" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -1866,8 +1860,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=a38ehxv3kyk</v>
       </c>
-      <c r="D41">
-        <v>31</v>
+      <c r="D41" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1882,7 +1876,7 @@
         <v>https://www.youtube.com/watch?v=Lln1PKgGr_M</v>
       </c>
       <c r="D42" s="13">
-        <v>45474</v>
+        <v>36538</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1896,8 +1890,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=OnPE-Z8jtqM</v>
       </c>
-      <c r="D43">
-        <v>2</v>
+      <c r="D43" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -1911,8 +1905,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ccv1-W5ilak</v>
       </c>
-      <c r="D44">
-        <v>3</v>
+      <c r="D44" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1926,8 +1920,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=bcXA4CqRXvM</v>
       </c>
-      <c r="D45">
-        <v>4</v>
+      <c r="D45" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1941,8 +1935,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=ma-h30PoFms</v>
       </c>
-      <c r="D46">
-        <v>4</v>
+      <c r="D46" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -1956,8 +1950,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=ToGuhynu-No</v>
       </c>
-      <c r="D47">
-        <v>5</v>
+      <c r="D47" s="4">
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -1971,8 +1965,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=iRbsBi5W0-c</v>
       </c>
-      <c r="D48">
-        <v>6</v>
+      <c r="D48" s="4">
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1987,7 +1981,7 @@
         <v>https://www.youtube.com/watch?v=tXXnxjj2wM4</v>
       </c>
       <c r="D49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -2001,8 +1995,8 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=tofVCUDrg4M</v>
       </c>
-      <c r="D50" t="s">
-        <v>271</v>
+      <c r="D50">
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -2017,7 +2011,7 @@
         <v>https://www.youtube.com/watch?v=UZPfbG0jNec</v>
       </c>
       <c r="D51" s="14">
-        <v>45485</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -2057,9 +2051,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=ashGekqstl8</v>
       </c>
-      <c r="D54" s="4">
-        <v>13</v>
-      </c>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
@@ -2072,9 +2064,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=NU37mF5q8VE</v>
       </c>
-      <c r="D55" s="4">
-        <v>13</v>
-      </c>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
@@ -2087,9 +2077,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=VmZWXzxmNrE</v>
       </c>
-      <c r="D56" s="4">
-        <v>13</v>
-      </c>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
@@ -2102,9 +2090,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=ORyfPJypKuU</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>273</v>
-      </c>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
@@ -2117,9 +2103,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Jyo53pAyVAM</v>
       </c>
-      <c r="D58" s="3">
-        <v>16</v>
-      </c>
+      <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
@@ -2132,9 +2116,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=V7KBAa_gh4c</v>
       </c>
-      <c r="D59" s="4">
-        <v>17</v>
-      </c>
+      <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
@@ -2147,9 +2129,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=_scscQ4HVTY</v>
       </c>
-      <c r="D60" s="4">
-        <v>18</v>
-      </c>
+      <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
@@ -2162,9 +2142,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=BNWLf3cKdbQ</v>
       </c>
-      <c r="D61" s="4">
-        <v>18</v>
-      </c>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
@@ -2177,9 +2155,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=74DU02Fyrhk</v>
       </c>
-      <c r="D62" s="4">
-        <v>19</v>
-      </c>
+      <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
@@ -2192,9 +2168,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=aEow1QoTLo0</v>
       </c>
-      <c r="D63" s="4">
-        <v>19</v>
-      </c>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
@@ -2207,9 +2181,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=oDlZBQjk_3A</v>
       </c>
-      <c r="D64" s="4">
-        <v>19</v>
-      </c>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
@@ -2222,9 +2194,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Fci_wwMp8G8</v>
       </c>
-      <c r="D65" s="4">
-        <v>20</v>
-      </c>
+      <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
@@ -2237,9 +2207,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=8osKeShYVRQ</v>
       </c>
-      <c r="D66" s="4">
-        <v>20</v>
-      </c>
+      <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
@@ -2252,9 +2220,7 @@
         <f t="shared" ref="C67:C98" si="2">HYPERLINK(B67)</f>
         <v>https://www.youtube.com/watch?v=HLF4bFbBgwk</v>
       </c>
-      <c r="D67" s="4">
-        <v>21</v>
-      </c>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
@@ -2267,9 +2233,7 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=FN4aZPIAfI4</v>
       </c>
-      <c r="D68" s="4">
-        <v>21</v>
-      </c>
+      <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
@@ -2282,9 +2246,7 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=2g2DBkFhTTY</v>
       </c>
-      <c r="D69" s="4">
-        <v>22</v>
-      </c>
+      <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
@@ -2691,7 +2653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>192</v>
       </c>
@@ -2706,7 +2668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>194</v>
       </c>
@@ -2721,7 +2683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>196</v>
       </c>
@@ -2736,7 +2698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>198</v>
       </c>
@@ -2751,7 +2713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>200</v>
       </c>
@@ -2766,7 +2728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>202</v>
       </c>
@@ -2781,7 +2743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>204</v>
       </c>
@@ -2796,7 +2758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>206</v>
       </c>
@@ -2811,7 +2773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>208</v>
       </c>
@@ -2826,7 +2788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>210</v>
       </c>
@@ -2841,7 +2803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>212</v>
       </c>
@@ -2856,7 +2818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -2867,11 +2829,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=nMNiTZm-qY0</v>
       </c>
-      <c r="D108">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E108" s="13">
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -2882,11 +2844,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=4p5EQtyxSyI</v>
       </c>
-      <c r="D109">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E109">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -2897,11 +2859,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=O-aDHBGMqXA</v>
       </c>
-      <c r="D110">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E110">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>220</v>
       </c>
@@ -2912,11 +2874,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=Ka5i9TVUT-E</v>
       </c>
-      <c r="D111">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E111">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -2927,11 +2889,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=abnL_GUGub4</v>
       </c>
-      <c r="D112">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E112">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -2942,11 +2904,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=EmSNAtcHLm8</v>
       </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E113">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>226</v>
       </c>
@@ -2957,11 +2919,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=ugTxMLjLS8M</v>
       </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E114">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -2972,11 +2934,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=yCAlHPDgWtM</v>
       </c>
-      <c r="D115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -2987,11 +2949,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=utqrvIFAE1k</v>
       </c>
-      <c r="D116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E116">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -3002,11 +2964,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=pjvmVMDrzVU</v>
       </c>
-      <c r="D117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E117">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -3017,11 +2979,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=egxjT0p7_K8</v>
       </c>
-      <c r="D118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E118">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -3032,11 +2994,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=Ty7knppVo9E</v>
       </c>
-      <c r="D119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E119">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -3047,11 +3009,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=0GD480CnrO4</v>
       </c>
-      <c r="D120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E120">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -3062,11 +3024,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=nneTjTYikBE</v>
       </c>
-      <c r="D121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E121">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -3077,11 +3039,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=Oqw-v-Z7PuU</v>
       </c>
-      <c r="D122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E122">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -3092,11 +3054,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=aAEHjXDHtbE</v>
       </c>
-      <c r="D123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E123">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -3107,11 +3069,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=ZR1_QtLk_4U</v>
       </c>
-      <c r="D124">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E124">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -3122,11 +3084,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=2PVRG45eVrY</v>
       </c>
-      <c r="D125">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E125">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -3137,11 +3099,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=DeeWsqoY4Eo</v>
       </c>
-      <c r="D126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E126">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -3152,11 +3114,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=TCgK2nBJx9o</v>
       </c>
-      <c r="D127">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E127">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>254</v>
       </c>
@@ -3167,11 +3129,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=C6aDw4y8qJ0</v>
       </c>
-      <c r="D128">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E128">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -3182,11 +3144,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=gmp2tS2joaA</v>
       </c>
-      <c r="D129">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E129">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -3197,11 +3159,11 @@
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=mELtxVUNNrw</v>
       </c>
-      <c r="D130">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E130">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -3212,11 +3174,11 @@
         <f t="shared" ref="C131:C133" si="4">HYPERLINK(B131)</f>
         <v>https://www.youtube.com/watch?v=0Eo-_5bfers</v>
       </c>
-      <c r="D131" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E131" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -3227,11 +3189,11 @@
         <f t="shared" si="4"/>
         <v>https://www.youtube.com/watch?v=1_bLnsNmhCI</v>
       </c>
-      <c r="D132">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E132">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -3242,8 +3204,8 @@
         <f t="shared" si="4"/>
         <v>https://www.youtube.com/watch?v=yh2AKoJCV3k</v>
       </c>
-      <c r="D133">
-        <v>11</v>
+      <c r="E133">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -858,7 +858,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,6 +889,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -903,7 +909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -917,13 +923,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1266,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1819,78 +1827,78 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="11" t="str">
+      <c r="C39" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ratcir3p03w</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="16">
         <v>10</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="1" t="str">
+      <c r="C40" s="11" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=-fK-xEev2I8</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="1" t="str">
+      <c r="C41" s="11" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=a38ehxv3kyk</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="1" t="str">
+      <c r="C42" s="11" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Lln1PKgGr_M</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="15">
         <v>36538</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="1" t="str">
+      <c r="C43" s="11" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=OnPE-Z8jtqM</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="6">
         <v>14</v>
       </c>
     </row>
@@ -2010,7 +2018,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=UZPfbG0jNec</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="13">
         <v>23</v>
       </c>
     </row>
@@ -2025,7 +2033,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=dXHIDLPKdmA</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
@@ -2038,7 +2046,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ti7c-Hz7GSM</v>
       </c>
-      <c r="D53" s="15"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
@@ -2819,32 +2827,34 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="A108" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C108" s="1" t="str">
+      <c r="C108" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=nMNiTZm-qY0</v>
       </c>
-      <c r="E108" s="13">
+      <c r="D108" s="6"/>
+      <c r="E108" s="15">
         <v>45483</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="A109" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C109" s="1" t="str">
+      <c r="C109" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=4p5EQtyxSyI</v>
       </c>
-      <c r="E109">
+      <c r="D109" s="6"/>
+      <c r="E109" s="6">
         <v>11</v>
       </c>
     </row>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -923,15 +923,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1274,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1827,17 +1827,17 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="17" t="str">
+      <c r="C39" s="15" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ratcir3p03w</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="14">
         <v>10</v>
       </c>
       <c r="E39" s="3"/>
@@ -1883,7 +1883,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Lln1PKgGr_M</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="13">
         <v>36538</v>
       </c>
     </row>
@@ -1903,62 +1903,62 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="1" t="str">
+      <c r="C44" s="11" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ccv1-W5ilak</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="1" t="str">
+      <c r="C45" s="11" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=bcXA4CqRXvM</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="1" t="str">
+      <c r="C46" s="11" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=ma-h30PoFms</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="1" t="str">
+      <c r="C47" s="11" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=ToGuhynu-No</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="6">
         <v>18</v>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=UZPfbG0jNec</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="16">
         <v>23</v>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=dXHIDLPKdmA</v>
       </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="17"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
@@ -2046,7 +2046,7 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Ti7c-Hz7GSM</v>
       </c>
-      <c r="D53" s="14"/>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
@@ -2838,7 +2838,7 @@
         <v>https://www.youtube.com/watch?v=nMNiTZm-qY0</v>
       </c>
       <c r="D108" s="6"/>
-      <c r="E108" s="15">
+      <c r="E108" s="13">
         <v>45483</v>
       </c>
     </row>
@@ -2859,32 +2859,34 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="A110" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C110" s="1" t="str">
+      <c r="C110" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=O-aDHBGMqXA</v>
       </c>
-      <c r="E110">
+      <c r="D110" s="6"/>
+      <c r="E110" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="A111" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C111" s="1" t="str">
+      <c r="C111" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=Ka5i9TVUT-E</v>
       </c>
-      <c r="E111">
+      <c r="D111" s="6"/>
+      <c r="E111" s="6">
         <v>12</v>
       </c>
     </row>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -1274,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2891,17 +2891,18 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="A112" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C112" s="1" t="str">
+      <c r="C112" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=abnL_GUGub4</v>
       </c>
-      <c r="E112">
+      <c r="D112" s="6"/>
+      <c r="E112" s="6">
         <v>13</v>
       </c>
     </row>
@@ -2921,47 +2922,50 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="A114" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C114" s="1" t="str">
+      <c r="C114" s="15" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=ugTxMLjLS8M</v>
       </c>
-      <c r="E114">
+      <c r="D114" s="14"/>
+      <c r="E114" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="A115" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C115" s="1" t="str">
+      <c r="C115" s="15" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=yCAlHPDgWtM</v>
       </c>
-      <c r="E115">
+      <c r="D115" s="14"/>
+      <c r="E115" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="A116" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C116" s="1" t="str">
+      <c r="C116" s="15" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=utqrvIFAE1k</v>
       </c>
-      <c r="E116">
+      <c r="D116" s="14"/>
+      <c r="E116" s="14">
         <v>15</v>
       </c>
     </row>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -1274,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2922,80 +2922,82 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C114" s="15" t="str">
+      <c r="C114" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=ugTxMLjLS8M</v>
       </c>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14">
+      <c r="D114" s="6"/>
+      <c r="E114" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C115" s="15" t="str">
+      <c r="C115" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=yCAlHPDgWtM</v>
       </c>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14">
+      <c r="D115" s="6"/>
+      <c r="E115" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C116" s="15" t="str">
+      <c r="C116" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=utqrvIFAE1k</v>
       </c>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14">
+      <c r="D116" s="6"/>
+      <c r="E116" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="A117" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C117" s="1" t="str">
+      <c r="C117" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=pjvmVMDrzVU</v>
       </c>
-      <c r="E117">
+      <c r="D117" s="6"/>
+      <c r="E117" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+      <c r="A118" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C118" s="1" t="str">
+      <c r="C118" s="11" t="str">
         <f t="shared" si="3"/>
         <v>https://www.youtube.com/watch?v=egxjT0p7_K8</v>
       </c>
-      <c r="E118">
+      <c r="D118" s="6"/>
+      <c r="E118" s="6">
         <v>16</v>
       </c>
     </row>

--- a/100 Days of Machine Learning.xlsx
+++ b/100 Days of Machine Learning.xlsx
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I118" sqref="I118"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1963,47 +1963,47 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="1" t="str">
+      <c r="C48" s="11" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=iRbsBi5W0-c</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="1" t="str">
+      <c r="C49" s="11" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=tXXnxjj2wM4</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="6" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="1" t="str">
+      <c r="C50" s="11" t="str">
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=tofVCUDrg4M</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="6">
         <v>22</v>
       </c>
     </row>
